--- a/etf_dfs/EWC.xlsx
+++ b/etf_dfs/EWC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWC</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>10.4375</v>
       </c>
       <c r="F2">
-        <v>4.808238983154297</v>
+        <v>4.808239936828613</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>10.8125</v>
       </c>
       <c r="F3">
-        <v>4.980990886688232</v>
+        <v>4.980991363525391</v>
       </c>
       <c r="G3">
         <v>4800</v>
@@ -488,7 +494,7 @@
         <v>0.03592814371257491</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>10.75</v>
       </c>
       <c r="F4">
-        <v>4.95219898223877</v>
+        <v>4.952199459075928</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.005780346820809301</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.0294923564892109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>10.5625</v>
       </c>
       <c r="F5">
-        <v>4.865821361541748</v>
+        <v>4.865822315216064</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.01744186046511631</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.02805930157415581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>10.375</v>
       </c>
       <c r="F6">
-        <v>4.779447555541992</v>
+        <v>4.779448986053467</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.01775147928994081</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.02541136922566834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>10.625</v>
       </c>
       <c r="F7">
-        <v>4.913353443145752</v>
+        <v>4.913354396820068</v>
       </c>
       <c r="G7">
         <v>14700</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.02409638554216875</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.02475695007623028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>11.0625</v>
       </c>
       <c r="F8">
-        <v>5.115669250488281</v>
+        <v>5.115668773651123</v>
       </c>
       <c r="G8">
         <v>3100</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.04117647058823537</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.02688925466626979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>5.549201488494873</v>
+        <v>5.549200534820557</v>
       </c>
       <c r="G9">
         <v>4100</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.0847457627118644</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.03741457636844552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>12.6875</v>
       </c>
       <c r="F10">
-        <v>5.867122650146484</v>
+        <v>5.867123126983643</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.05729166666666674</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.03697492598686349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>12.25</v>
       </c>
       <c r="F11">
-        <v>5.67557430267334</v>
+        <v>5.675573348999023</v>
       </c>
       <c r="G11">
         <v>100</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.03448275862068961</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.03991410927035943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>12.875</v>
       </c>
       <c r="F12">
-        <v>5.965147018432617</v>
+        <v>5.965144157409668</v>
       </c>
       <c r="G12">
         <v>25900</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.05102040816326525</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.03899941357869227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.009708737864077666</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.03820436748237829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>5.559746742248535</v>
+        <v>5.559745788574219</v>
       </c>
       <c r="G14">
         <v>3900</v>
@@ -774,13 +810,16 @@
         <v>-0.05882352941176472</v>
       </c>
       <c r="I14">
-        <v>0.1497005988023952</v>
+        <v>0.04279841226664634</v>
       </c>
       <c r="J14">
         <v>0.1497005988023952</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.1497005988023952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>12.1875</v>
       </c>
       <c r="F15">
-        <v>5.646618366241455</v>
+        <v>5.646617412567139</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -806,13 +845,16 @@
         <v>0.015625</v>
       </c>
       <c r="I15">
-        <v>0.1271676300578035</v>
+        <v>0.04098539378147906</v>
       </c>
       <c r="J15">
         <v>0.1271676300578035</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.1271676300578035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>13.25</v>
       </c>
       <c r="F16">
-        <v>6.138886451721191</v>
+        <v>6.13888692855835</v>
       </c>
       <c r="G16">
         <v>14000</v>
@@ -838,13 +880,16 @@
         <v>0.08717948717948709</v>
       </c>
       <c r="I16">
-        <v>0.2325581395348837</v>
+        <v>0.04411535517684124</v>
       </c>
       <c r="J16">
         <v>0.2325581395348837</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.2325581395348837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>13.375</v>
       </c>
       <c r="F17">
-        <v>6.19680118560791</v>
+        <v>6.196799755096436</v>
       </c>
       <c r="G17">
         <v>2300</v>
@@ -870,13 +915,16 @@
         <v>0.009433962264151052</v>
       </c>
       <c r="I17">
-        <v>0.2662721893491125</v>
+        <v>0.04256915161404507</v>
       </c>
       <c r="J17">
         <v>0.2662721893491125</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.2662721893491125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>14.5</v>
       </c>
       <c r="F18">
-        <v>6.718028545379639</v>
+        <v>6.718027114868164</v>
       </c>
       <c r="G18">
         <v>600</v>
@@ -902,13 +950,16 @@
         <v>0.08411214953271018</v>
       </c>
       <c r="I18">
-        <v>0.3975903614457832</v>
+        <v>0.04436938943686824</v>
       </c>
       <c r="J18">
         <v>0.3975903614457832</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3975903614457832</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>13.4375</v>
       </c>
       <c r="F19">
-        <v>6.302876949310303</v>
+        <v>6.302875518798828</v>
       </c>
       <c r="G19">
         <v>1300</v>
@@ -934,13 +985,16 @@
         <v>-0.07327586206896552</v>
       </c>
       <c r="I19">
-        <v>0.2647058823529411</v>
+        <v>0.04874228859950242</v>
       </c>
       <c r="J19">
         <v>0.2647058823529411</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.2647058823529411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>14.1875</v>
       </c>
       <c r="F20">
-        <v>6.654663562774658</v>
+        <v>6.654664516448975</v>
       </c>
       <c r="G20">
         <v>3100</v>
@@ -966,13 +1020,16 @@
         <v>0.05581395348837215</v>
       </c>
       <c r="I20">
-        <v>0.2824858757062148</v>
+        <v>0.04820551266274885</v>
       </c>
       <c r="J20">
         <v>0.2824858757062148</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.2824858757062148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -998,13 +1055,16 @@
         <v>-0.05726872246696035</v>
       </c>
       <c r="I21">
-        <v>0.1145833333333333</v>
+        <v>0.04995123653022004</v>
       </c>
       <c r="J21">
         <v>0.1145833333333333</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.1145833333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="F22">
-        <v>6.097665786743164</v>
+        <v>6.097666263580322</v>
       </c>
       <c r="G22">
         <v>2500</v>
@@ -1030,13 +1090,16 @@
         <v>-0.0280373831775701</v>
       </c>
       <c r="I22">
-        <v>0.02463054187192126</v>
+        <v>0.04953250116853656</v>
       </c>
       <c r="J22">
         <v>0.02463054187192126</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.02463054187192126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>13.3125</v>
       </c>
       <c r="F23">
-        <v>6.277565956115723</v>
+        <v>6.277564525604248</v>
       </c>
       <c r="G23">
         <v>4000</v>
@@ -1062,13 +1125,16 @@
         <v>0.02403846153846145</v>
       </c>
       <c r="I23">
-        <v>0.08673469387755106</v>
+        <v>0.04834746440465791</v>
       </c>
       <c r="J23">
         <v>0.08673469387755106</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.08673469387755106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>13.1875</v>
       </c>
       <c r="F24">
-        <v>6.218622207641602</v>
+        <v>6.218620777130127</v>
       </c>
       <c r="G24">
         <v>7600</v>
@@ -1094,13 +1160,16 @@
         <v>-0.009389671361502372</v>
       </c>
       <c r="I24">
-        <v>0.02427184466019416</v>
+        <v>0.04741795685772485</v>
       </c>
       <c r="J24">
         <v>0.02427184466019416</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.02427184466019416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>14.4375</v>
       </c>
       <c r="F25">
-        <v>6.80806303024292</v>
+        <v>6.808064937591553</v>
       </c>
       <c r="G25">
         <v>800</v>
@@ -1126,13 +1195,16 @@
         <v>0.09478672985782</v>
       </c>
       <c r="I25">
-        <v>0.1323529411764706</v>
+        <v>0.04945751899265671</v>
       </c>
       <c r="J25">
         <v>0.1323529411764706</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.1323529411764706</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>15.25</v>
       </c>
       <c r="F26">
-        <v>7.191202640533447</v>
+        <v>7.191201686859131</v>
       </c>
       <c r="G26">
         <v>2400</v>
@@ -1158,13 +1230,16 @@
         <v>0.05627705627705626</v>
       </c>
       <c r="I26">
-        <v>0.2708333333333333</v>
+        <v>0.04908618637660922</v>
       </c>
       <c r="J26">
         <v>0.2708333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.2708333333333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>15.25</v>
       </c>
       <c r="F27">
-        <v>7.191202640533447</v>
+        <v>7.191201686859131</v>
       </c>
       <c r="G27">
         <v>500</v>
@@ -1190,13 +1265,16 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.2512820512820513</v>
+        <v>0.04817373411735998</v>
       </c>
       <c r="J27">
         <v>0.2512820512820513</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.2512820512820513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>15</v>
       </c>
       <c r="F28">
-        <v>7.07331371307373</v>
+        <v>7.073312282562256</v>
       </c>
       <c r="G28">
         <v>24700</v>
@@ -1222,13 +1300,16 @@
         <v>-0.01639344262295084</v>
       </c>
       <c r="I28">
-        <v>0.1320754716981132</v>
+        <v>0.04763610373032889</v>
       </c>
       <c r="J28">
         <v>0.1320754716981132</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.1320754716981132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>14.6875</v>
       </c>
       <c r="F29">
-        <v>6.925953388214111</v>
+        <v>6.925951480865479</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -1254,13 +1335,16 @@
         <v>-0.02083333333333337</v>
       </c>
       <c r="I29">
-        <v>0.09813084112149539</v>
+        <v>0.04722078424408504</v>
       </c>
       <c r="J29">
         <v>0.09813084112149539</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.09813084112149539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>13.625</v>
       </c>
       <c r="F30">
-        <v>6.424925327301025</v>
+        <v>6.4249267578125</v>
       </c>
       <c r="G30">
         <v>2800</v>
@@ -1286,13 +1370,16 @@
         <v>-0.07234042553191489</v>
       </c>
       <c r="I30">
-        <v>-0.06034482758620685</v>
+        <v>0.04911378398497734</v>
       </c>
       <c r="J30">
         <v>-0.06034482758620685</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>-0.06034482758620685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="F31">
-        <v>4.985049724578857</v>
+        <v>4.985048770904541</v>
       </c>
       <c r="G31">
         <v>4300</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2660550458715596</v>
       </c>
       <c r="I31">
-        <v>-0.2558139534883721</v>
+        <v>0.07048004415459205</v>
       </c>
       <c r="J31">
         <v>-0.2558139534883721</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.2558139534883721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>10.4375</v>
       </c>
       <c r="F32">
-        <v>5.203145027160645</v>
+        <v>5.203145503997803</v>
       </c>
       <c r="G32">
         <v>600</v>
@@ -1350,13 +1440,16 @@
         <v>0.04374999999999996</v>
       </c>
       <c r="I32">
-        <v>-0.26431718061674</v>
+        <v>0.06968916445917227</v>
       </c>
       <c r="J32">
         <v>-0.26431718061674</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.26431718061674</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>11.375</v>
       </c>
       <c r="F33">
-        <v>5.670492649078369</v>
+        <v>5.670493125915527</v>
       </c>
       <c r="G33">
         <v>24500</v>
@@ -1382,13 +1475,16 @@
         <v>0.08982035928143706</v>
       </c>
       <c r="I33">
-        <v>-0.1495327102803738</v>
+        <v>0.0702862073758672</v>
       </c>
       <c r="J33">
         <v>-0.1495327102803738</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.1495327102803738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>11.75</v>
       </c>
       <c r="F34">
-        <v>5.857433795928955</v>
+        <v>5.857433319091797</v>
       </c>
       <c r="G34">
         <v>6200</v>
@@ -1414,13 +1510,16 @@
         <v>0.03296703296703307</v>
       </c>
       <c r="I34">
-        <v>-0.09615384615384615</v>
+        <v>0.06931473943577157</v>
       </c>
       <c r="J34">
         <v>-0.09615384615384615</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-0.09615384615384615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>11.5625</v>
       </c>
       <c r="F35">
-        <v>5.7909255027771</v>
+        <v>5.790926933288574</v>
       </c>
       <c r="G35">
         <v>4200</v>
@@ -1446,13 +1545,16 @@
         <v>-0.01595744680851063</v>
       </c>
       <c r="I35">
-        <v>-0.1314553990610329</v>
+        <v>0.06833268781188384</v>
       </c>
       <c r="J35">
         <v>-0.1314553990610329</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-0.1314553990610329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>12.5625</v>
       </c>
       <c r="F36">
-        <v>6.291765213012695</v>
+        <v>6.291764259338379</v>
       </c>
       <c r="G36">
         <v>10100</v>
@@ -1478,13 +1580,16 @@
         <v>0.08648648648648649</v>
       </c>
       <c r="I36">
-        <v>-0.04739336492891</v>
+        <v>0.06870466237557712</v>
       </c>
       <c r="J36">
         <v>-0.04739336492891</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.04739336492891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1510,13 +1615,16 @@
         <v>-0.04975124378109452</v>
       </c>
       <c r="I37">
-        <v>-0.1731601731601732</v>
+        <v>0.06838634999276334</v>
       </c>
       <c r="J37">
         <v>-0.1731601731601732</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.1731601731601732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>12.4375</v>
       </c>
       <c r="F38">
-        <v>6.229158401489258</v>
+        <v>6.229160308837891</v>
       </c>
       <c r="G38">
         <v>41600</v>
@@ -1542,13 +1650,16 @@
         <v>0.04188481675392675</v>
       </c>
       <c r="I38">
-        <v>-0.1844262295081968</v>
+        <v>0.06766243179506713</v>
       </c>
       <c r="J38">
         <v>-0.1844262295081968</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.1844262295081968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>0.1005025125628141</v>
       </c>
       <c r="I39">
-        <v>-0.1024590163934426</v>
+        <v>0.06845261296158241</v>
       </c>
       <c r="J39">
         <v>-0.1024590163934426</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.1024590163934426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1606,13 +1720,16 @@
         <v>-0.04109589041095896</v>
       </c>
       <c r="I40">
-        <v>-0.125</v>
+        <v>0.06802471589099127</v>
       </c>
       <c r="J40">
         <v>-0.125</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>14.0625</v>
       </c>
       <c r="F41">
-        <v>7.043018341064453</v>
+        <v>7.043016910552979</v>
       </c>
       <c r="G41">
         <v>3800</v>
@@ -1638,13 +1755,16 @@
         <v>0.0714285714285714</v>
       </c>
       <c r="I41">
-        <v>-0.04255319148936165</v>
+        <v>0.06787610867352903</v>
       </c>
       <c r="J41">
         <v>-0.04255319148936165</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.04255319148936165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>13.9375</v>
       </c>
       <c r="F42">
-        <v>6.980413913726807</v>
+        <v>6.980414390563965</v>
       </c>
       <c r="G42">
         <v>3000</v>
@@ -1670,13 +1790,16 @@
         <v>-0.008888888888888835</v>
       </c>
       <c r="I42">
-        <v>0.02293577981651373</v>
+        <v>0.06706750342837918</v>
       </c>
       <c r="J42">
         <v>0.02293577981651373</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.02293577981651373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>13.4375</v>
       </c>
       <c r="F43">
-        <v>7.013542175292969</v>
+        <v>7.013543605804443</v>
       </c>
       <c r="G43">
         <v>1800</v>
@@ -1702,13 +1825,16 @@
         <v>-0.0358744394618834</v>
       </c>
       <c r="I43">
-        <v>0.34375</v>
+        <v>0.06660402676891787</v>
       </c>
       <c r="J43">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>13.4375</v>
       </c>
       <c r="F44">
-        <v>7.013542175292969</v>
+        <v>7.013543605804443</v>
       </c>
       <c r="G44">
         <v>4400</v>
@@ -1734,13 +1860,16 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.2874251497005988</v>
+        <v>0.06579989522934834</v>
       </c>
       <c r="J44">
         <v>0.2874251497005988</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.2874251497005988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>14.1875</v>
       </c>
       <c r="F45">
-        <v>7.404995918273926</v>
+        <v>7.404995441436768</v>
       </c>
       <c r="G45">
         <v>4500</v>
@@ -1766,13 +1895,16 @@
         <v>0.05581395348837215</v>
       </c>
       <c r="I45">
-        <v>0.2472527472527473</v>
+        <v>0.06541413674296584</v>
       </c>
       <c r="J45">
         <v>0.2472527472527473</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.2472527472527473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>15.0625</v>
       </c>
       <c r="F46">
-        <v>7.861691474914551</v>
+        <v>7.861691951751709</v>
       </c>
       <c r="G46">
         <v>6800</v>
@@ -1798,13 +1930,16 @@
         <v>0.06167400881057272</v>
       </c>
       <c r="I46">
-        <v>0.2819148936170213</v>
+        <v>0.06512722593680562</v>
       </c>
       <c r="J46">
         <v>0.2819148936170213</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.2819148936170213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>16.5</v>
       </c>
       <c r="F47">
-        <v>8.614137649536133</v>
+        <v>8.614142417907715</v>
       </c>
       <c r="G47">
         <v>1800</v>
@@ -1830,13 +1965,16 @@
         <v>0.09543568464730301</v>
       </c>
       <c r="I47">
-        <v>0.4270270270270271</v>
+        <v>0.06561300194446094</v>
       </c>
       <c r="J47">
         <v>0.4270270270270271</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.4270270270270271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1862,13 +2000,16 @@
         <v>0.01136363636363646</v>
       </c>
       <c r="I48">
-        <v>0.3283582089552239</v>
+        <v>0.06488008605941858</v>
       </c>
       <c r="J48">
         <v>0.3283582089552239</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.3283582089552239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1894,13 +2035,16 @@
         <v>0.04119850187265928</v>
       </c>
       <c r="I49">
-        <v>0.455497382198953</v>
+        <v>0.0643076946539775</v>
       </c>
       <c r="J49">
         <v>0.455497382198953</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.455497382198953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>18.4375</v>
       </c>
       <c r="F50">
-        <v>9.62564754486084</v>
+        <v>9.625650405883789</v>
       </c>
       <c r="G50">
         <v>12200</v>
@@ -1926,13 +2070,16 @@
         <v>0.06115107913669071</v>
       </c>
       <c r="I50">
-        <v>0.4824120603015076</v>
+        <v>0.06399715193028056</v>
       </c>
       <c r="J50">
         <v>0.4824120603015076</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.4824120603015076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>18.0625</v>
       </c>
       <c r="F51">
-        <v>9.429872512817383</v>
+        <v>9.429873466491699</v>
       </c>
       <c r="G51">
         <v>2800</v>
@@ -1958,13 +2105,16 @@
         <v>-0.02033898305084747</v>
       </c>
       <c r="I51">
-        <v>0.3196347031963471</v>
+        <v>0.0635176111507663</v>
       </c>
       <c r="J51">
         <v>0.3196347031963471</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.3196347031963471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>18.125</v>
       </c>
       <c r="F52">
-        <v>9.462503433227539</v>
+        <v>9.462502479553223</v>
       </c>
       <c r="G52">
         <v>700</v>
@@ -1990,13 +2140,16 @@
         <v>0.0034602076124568</v>
       </c>
       <c r="I52">
-        <v>0.3809523809523809</v>
+        <v>0.06288177507011337</v>
       </c>
       <c r="J52">
         <v>0.3809523809523809</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.3809523809523809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>19.9375</v>
       </c>
       <c r="F53">
-        <v>10.40875148773193</v>
+        <v>10.40875053405762</v>
       </c>
       <c r="G53">
         <v>2600</v>
@@ -2022,13 +2175,16 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="I53">
-        <v>0.4177777777777778</v>
+        <v>0.06342582600416408</v>
       </c>
       <c r="J53">
         <v>0.4177777777777778</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.4177777777777778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>20.5</v>
       </c>
       <c r="F54">
-        <v>10.70241641998291</v>
+        <v>10.70241737365723</v>
       </c>
       <c r="G54">
         <v>48800</v>
@@ -2054,13 +2210,16 @@
         <v>0.02821316614420066</v>
       </c>
       <c r="I54">
-        <v>0.4708520179372198</v>
+        <v>0.06282813113067555</v>
       </c>
       <c r="J54">
         <v>0.4708520179372198</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.4708520179372198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>17</v>
       </c>
       <c r="F55">
-        <v>11.58411979675293</v>
+        <v>11.58411884307861</v>
       </c>
       <c r="G55">
         <v>39600</v>
@@ -2086,13 +2245,16 @@
         <v>-0.1707317073170732</v>
       </c>
       <c r="I55">
-        <v>0.2651162790697674</v>
+        <v>0.06725551964569447</v>
       </c>
       <c r="J55">
         <v>0.2651162790697674</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.2651162790697674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>16.125</v>
       </c>
       <c r="F56">
-        <v>10.98787498474121</v>
+        <v>10.98787593841553</v>
       </c>
       <c r="G56">
         <v>3000</v>
@@ -2118,13 +2280,16 @@
         <v>-0.05147058823529416</v>
       </c>
       <c r="I56">
-        <v>0.2</v>
+        <v>0.06716916913604416</v>
       </c>
       <c r="J56">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>14.875</v>
       </c>
       <c r="F57">
-        <v>10.13610458374023</v>
+        <v>10.13609981536865</v>
       </c>
       <c r="G57">
         <v>25700</v>
@@ -2150,13 +2315,16 @@
         <v>-0.07751937984496127</v>
       </c>
       <c r="I57">
-        <v>0.04845814977973562</v>
+        <v>0.06759356389214807</v>
       </c>
       <c r="J57">
         <v>0.04845814977973562</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0.04845814977973562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>13.1875</v>
       </c>
       <c r="F58">
-        <v>8.986209869384766</v>
+        <v>8.986208915710449</v>
       </c>
       <c r="G58">
         <v>40200</v>
@@ -2182,13 +2350,16 @@
         <v>-0.1134453781512605</v>
       </c>
       <c r="I58">
-        <v>-0.1244813278008299</v>
+        <v>0.06894164325014678</v>
       </c>
       <c r="J58">
         <v>-0.1244813278008299</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.1244813278008299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>13.375</v>
       </c>
       <c r="F59">
-        <v>9.318366050720215</v>
+        <v>9.318367004394531</v>
       </c>
       <c r="G59">
         <v>35300</v>
@@ -2214,13 +2385,16 @@
         <v>0.01421800947867302</v>
       </c>
       <c r="I59">
-        <v>-0.1893939393939394</v>
+        <v>0.06833061701267322</v>
       </c>
       <c r="J59">
         <v>-0.1893939393939394</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1893939393939394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>14.10000038146973</v>
       </c>
       <c r="F60">
-        <v>9.823477745056152</v>
+        <v>9.82347583770752</v>
       </c>
       <c r="G60">
         <v>25400</v>
@@ -2246,13 +2420,16 @@
         <v>0.05420563599773653</v>
       </c>
       <c r="I60">
-        <v>-0.1550561569156718</v>
+        <v>0.06801387976289748</v>
       </c>
       <c r="J60">
         <v>-0.1550561569156718</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.1550561569156718</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>11.86999988555908</v>
       </c>
       <c r="F61">
-        <v>8.269831657409668</v>
+        <v>8.269832611083984</v>
       </c>
       <c r="G61">
         <v>3800</v>
@@ -2278,13 +2455,16 @@
         <v>-0.1581560592609146</v>
       </c>
       <c r="I61">
-        <v>-0.3168345389606284</v>
+        <v>0.0707952645622712</v>
       </c>
       <c r="J61">
         <v>-0.3168345389606284</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.3168345389606284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>10.85000038146973</v>
       </c>
       <c r="F62">
-        <v>7.559197902679443</v>
+        <v>7.559196949005127</v>
       </c>
       <c r="G62">
         <v>3900</v>
@@ -2310,13 +2490,16 @@
         <v>-0.08593087733137017</v>
       </c>
       <c r="I62">
-        <v>-0.41152540303893</v>
+        <v>0.0711637414296333</v>
       </c>
       <c r="J62">
         <v>-0.41152540303893</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.41152540303893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>11.80000019073486</v>
       </c>
       <c r="F63">
-        <v>8.221062660217285</v>
+        <v>8.221064567565918</v>
       </c>
       <c r="G63">
         <v>31500</v>
@@ -2342,13 +2525,16 @@
         <v>0.08755758302899252</v>
       </c>
       <c r="I63">
-        <v>-0.3467127922084505</v>
+        <v>0.07138795209982036</v>
       </c>
       <c r="J63">
         <v>-0.3467127922084505</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.3467127922084505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F64">
-        <v>8.499741554260254</v>
+        <v>8.499743461608887</v>
       </c>
       <c r="G64">
         <v>2700</v>
@@ -2374,13 +2560,16 @@
         <v>0.03389827220887209</v>
       </c>
       <c r="I64">
-        <v>-0.3268965622474407</v>
+        <v>0.07089751455953797</v>
       </c>
       <c r="J64">
         <v>-0.3268965622474407</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.3268965622474407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>11.5</v>
       </c>
       <c r="F65">
-        <v>8.012052536010742</v>
+        <v>8.012053489685059</v>
       </c>
       <c r="G65">
         <v>4800</v>
@@ -2406,13 +2595,16 @@
         <v>-0.05737703444335551</v>
       </c>
       <c r="I65">
-        <v>-0.4231974921630094</v>
+        <v>0.07076340633994646</v>
       </c>
       <c r="J65">
         <v>-0.4231974921630094</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.4231974921630094</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>11.35999965667725</v>
       </c>
       <c r="F66">
-        <v>7.914514064788818</v>
+        <v>7.914515495300293</v>
       </c>
       <c r="G66">
         <v>41500</v>
@@ -2438,13 +2630,16 @@
         <v>-0.01217394289763074</v>
       </c>
       <c r="I66">
-        <v>-0.4458536752840367</v>
+        <v>0.0702292515812049</v>
       </c>
       <c r="J66">
         <v>-0.4458536752840367</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.4458536752840367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>10.71000003814697</v>
       </c>
       <c r="F67">
-        <v>7.513072490692139</v>
+        <v>7.513070583343506</v>
       </c>
       <c r="G67">
         <v>3800</v>
@@ -2470,13 +2665,16 @@
         <v>-0.05721827800832835</v>
       </c>
       <c r="I67">
-        <v>-0.3699999977560604</v>
+        <v>0.07008973356951513</v>
       </c>
       <c r="J67">
         <v>-0.3699999977560604</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.3699999977560604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>9.649999618530273</v>
       </c>
       <c r="F68">
-        <v>6.769482135772705</v>
+        <v>6.76948070526123</v>
       </c>
       <c r="G68">
         <v>13600</v>
@@ -2502,13 +2700,16 @@
         <v>-0.09897296132970868</v>
       </c>
       <c r="I68">
-        <v>-0.4015504112539365</v>
+        <v>0.07067144042377424</v>
       </c>
       <c r="J68">
         <v>-0.4015504112539365</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.4015504112539365</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>9.619999885559082</v>
       </c>
       <c r="F69">
-        <v>6.74843692779541</v>
+        <v>6.748435497283936</v>
       </c>
       <c r="G69">
         <v>2500</v>
@@ -2534,13 +2735,16 @@
         <v>-0.003108780741668093</v>
       </c>
       <c r="I69">
-        <v>-0.3532773186178768</v>
+        <v>0.07013619466738485</v>
       </c>
       <c r="J69">
         <v>-0.3532773186178768</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.3532773186178768</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2566,13 +2770,16 @@
         <v>0.1018711546329389</v>
       </c>
       <c r="I70">
-        <v>-0.1962085018790729</v>
+        <v>0.07066993493000225</v>
       </c>
       <c r="J70">
         <v>-0.1962085018790729</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.1962085018790729</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>10.61999988555908</v>
       </c>
       <c r="F71">
-        <v>7.456748485565186</v>
+        <v>7.456748008728027</v>
       </c>
       <c r="G71">
         <v>8900</v>
@@ -2598,13 +2805,16 @@
         <v>0.001886745600907513</v>
       </c>
       <c r="I71">
-        <v>-0.2059813169675453</v>
+        <v>0.07014847150253299</v>
       </c>
       <c r="J71">
         <v>-0.2059813169675453</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.2059813169675453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="F72">
-        <v>7.442703723907471</v>
+        <v>7.442704677581787</v>
       </c>
       <c r="G72">
         <v>2700</v>
@@ -2630,13 +2840,16 @@
         <v>-0.001883192495750419</v>
       </c>
       <c r="I72">
-        <v>-0.2482269436389316</v>
+        <v>0.06964056479956374</v>
       </c>
       <c r="J72">
         <v>-0.2482269436389316</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.2482269436389316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="F73">
-        <v>7.512917041778564</v>
+        <v>7.512919902801514</v>
       </c>
       <c r="G73">
         <v>4200</v>
@@ -2662,13 +2875,16 @@
         <v>0.009433907943081188</v>
       </c>
       <c r="I73">
-        <v>-0.09856782540641429</v>
+        <v>0.06914588641917911</v>
       </c>
       <c r="J73">
         <v>-0.09856782540641429</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.09856782540641429</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="F74">
-        <v>7.765689849853516</v>
+        <v>7.765693187713623</v>
       </c>
       <c r="G74">
         <v>10000</v>
@@ -2694,13 +2910,16 @@
         <v>0.03364491745502995</v>
       </c>
       <c r="I74">
-        <v>0.01935484154504019</v>
+        <v>0.06875307699968727</v>
       </c>
       <c r="J74">
         <v>0.01935484154504019</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.01935484154504019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>11.14000034332275</v>
       </c>
       <c r="F75">
-        <v>7.821862697601318</v>
+        <v>7.82186222076416</v>
       </c>
       <c r="G75">
         <v>56400</v>
@@ -2726,13 +2945,16 @@
         <v>0.007233265883440865</v>
       </c>
       <c r="I75">
-        <v>-0.05593218955456702</v>
+        <v>0.06827552618282867</v>
       </c>
       <c r="J75">
         <v>-0.05593218955456702</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.05593218955456702</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="F76">
-        <v>7.941226005554199</v>
+        <v>7.941225528717041</v>
       </c>
       <c r="G76">
         <v>103400</v>
@@ -2758,13 +2980,16 @@
         <v>0.01526032953812639</v>
       </c>
       <c r="I76">
-        <v>-0.07295077078382728</v>
+        <v>0.06782045283437918</v>
       </c>
       <c r="J76">
         <v>-0.07295077078382728</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.07295077078382728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>10.61999988555908</v>
       </c>
       <c r="F77">
-        <v>7.456748485565186</v>
+        <v>7.456748008728027</v>
       </c>
       <c r="G77">
         <v>64600</v>
@@ -2790,13 +3015,16 @@
         <v>-0.06100800251614857</v>
       </c>
       <c r="I77">
-        <v>-0.07652174908181897</v>
+        <v>0.06777113603088922</v>
       </c>
       <c r="J77">
         <v>-0.07652174908181897</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.07652174908181897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>9.260000228881836</v>
       </c>
       <c r="F78">
-        <v>6.501834869384766</v>
+        <v>6.501834392547607</v>
       </c>
       <c r="G78">
         <v>14400</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1280602327055157</v>
       </c>
       <c r="I78">
-        <v>-0.1848591101462808</v>
+        <v>0.06896688143943877</v>
       </c>
       <c r="J78">
         <v>-0.1848591101462808</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1848591101462808</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>9.699999809265137</v>
       </c>
       <c r="F79">
-        <v>6.810778141021729</v>
+        <v>6.810777187347412</v>
       </c>
       <c r="G79">
         <v>10900</v>
@@ -2854,13 +3085,16 @@
         <v>0.04751615221465633</v>
       </c>
       <c r="I79">
-        <v>-0.09430440945699425</v>
+        <v>0.06871719424829736</v>
       </c>
       <c r="J79">
         <v>-0.09430440945699425</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.09430440945699425</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2886,13 +3120,16 @@
         <v>-0.1134020050953738</v>
       </c>
       <c r="I80">
-        <v>-0.1088082153956049</v>
+        <v>0.06949850176456995</v>
       </c>
       <c r="J80">
         <v>-0.1088082153956049</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1088082153956049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F81">
-        <v>6.389492034912109</v>
+        <v>6.389491558074951</v>
       </c>
       <c r="G81">
         <v>196100</v>
@@ -2918,13 +3155,16 @@
         <v>0.05813953230482882</v>
       </c>
       <c r="I81">
-        <v>-0.05405400314712527</v>
+        <v>0.06936022199472358</v>
       </c>
       <c r="J81">
         <v>-0.05405400314712527</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.05405400314712527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2950,13 +3190,16 @@
         <v>0.05824172645645453</v>
       </c>
       <c r="I82">
-        <v>-0.09150945586044545</v>
+        <v>0.06921861955296545</v>
       </c>
       <c r="J82">
         <v>-0.09150945586044545</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.09150945586044545</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>9.439999580383301</v>
       </c>
       <c r="F83">
-        <v>6.64915132522583</v>
+        <v>6.649153232574463</v>
       </c>
       <c r="G83">
         <v>5000</v>
@@ -2982,13 +3225,16 @@
         <v>-0.0197300656074445</v>
       </c>
       <c r="I83">
-        <v>-0.1111111410443919</v>
+        <v>0.06882507091587205</v>
       </c>
       <c r="J83">
         <v>-0.1111111410443919</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1111111410443919</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>9.840000152587891</v>
       </c>
       <c r="F84">
-        <v>6.93089485168457</v>
+        <v>6.930892467498779</v>
       </c>
       <c r="G84">
         <v>32800</v>
@@ -3014,13 +3260,16 @@
         <v>0.04237294385434165</v>
       </c>
       <c r="I84">
-        <v>-0.07169813221992161</v>
+        <v>0.0685495993297338</v>
       </c>
       <c r="J84">
         <v>-0.07169813221992161</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.07169813221992161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="F85">
-        <v>7.043592929840088</v>
+        <v>7.04359245300293</v>
       </c>
       <c r="G85">
         <v>30800</v>
@@ -3046,13 +3295,16 @@
         <v>0.01626014684258204</v>
       </c>
       <c r="I85">
-        <v>-0.06542054408814157</v>
+        <v>0.06814897761080276</v>
       </c>
       <c r="J85">
         <v>-0.06542054408814157</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.06542054408814157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>9.760000228881836</v>
       </c>
       <c r="F86">
-        <v>6.874547481536865</v>
+        <v>6.874547004699707</v>
       </c>
       <c r="G86">
         <v>26500</v>
@@ -3078,13 +3330,16 @@
         <v>-0.02399997711181645</v>
       </c>
       <c r="I86">
-        <v>-0.1175406999469099</v>
+        <v>0.06779617587933433</v>
       </c>
       <c r="J86">
         <v>-0.1175406999469099</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.1175406999469099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>10.5</v>
       </c>
       <c r="F87">
-        <v>7.395770072937012</v>
+        <v>7.395769119262695</v>
       </c>
       <c r="G87">
         <v>612200</v>
@@ -3110,13 +3365,16 @@
         <v>0.07581964690209264</v>
       </c>
       <c r="I87">
-        <v>-0.05745065741459932</v>
+        <v>0.06787048596365385</v>
       </c>
       <c r="J87">
         <v>-0.05745065741459932</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.05745065741459932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>11.5</v>
       </c>
       <c r="F88">
-        <v>8.100130081176758</v>
+        <v>8.100131034851074</v>
       </c>
       <c r="G88">
         <v>155900</v>
@@ -3142,13 +3400,16 @@
         <v>0.09523809523809534</v>
       </c>
       <c r="I88">
-        <v>0.01679925493669776</v>
+        <v>0.06820750177652014</v>
       </c>
       <c r="J88">
         <v>0.01679925493669776</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.01679925493669776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3174,13 +3435,16 @@
         <v>0.0260869731073794</v>
       </c>
       <c r="I89">
-        <v>0.1111111410443919</v>
+        <v>0.06785279900421319</v>
       </c>
       <c r="J89">
         <v>0.1111111410443919</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.1111111410443919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>11.65999984741211</v>
       </c>
       <c r="F90">
-        <v>8.212826728820801</v>
+        <v>8.212828636169434</v>
       </c>
       <c r="G90">
         <v>8684900</v>
@@ -3206,13 +3470,16 @@
         <v>-0.0118644356830333</v>
       </c>
       <c r="I90">
-        <v>0.2591792180571122</v>
+        <v>0.06748241522275046</v>
       </c>
       <c r="J90">
         <v>0.2591792180571122</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.2591792180571122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>12.31999969482422</v>
       </c>
       <c r="F91">
-        <v>8.677705764770508</v>
+        <v>8.677704811096191</v>
       </c>
       <c r="G91">
         <v>883500</v>
@@ -3238,13 +3505,16 @@
         <v>0.05660376123920741</v>
       </c>
       <c r="I91">
-        <v>0.2701030862966141</v>
+        <v>0.06733238820618272</v>
       </c>
       <c r="J91">
         <v>0.2701030862966141</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.2701030862966141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>12.40999984741211</v>
       </c>
       <c r="F92">
-        <v>8.741096496582031</v>
+        <v>8.741095542907715</v>
       </c>
       <c r="G92">
         <v>16900</v>
@@ -3270,13 +3540,16 @@
         <v>0.007305207371531175</v>
       </c>
       <c r="I92">
-        <v>0.4430231740630761</v>
+        <v>0.06695383161712058</v>
       </c>
       <c r="J92">
         <v>0.4430231740630761</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.4430231740630761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>13.22000026702881</v>
       </c>
       <c r="F93">
-        <v>9.311628341674805</v>
+        <v>9.311630249023438</v>
       </c>
       <c r="G93">
         <v>152400</v>
@@ -3302,13 +3575,16 @@
         <v>0.06526997820919478</v>
       </c>
       <c r="I93">
-        <v>0.4527472211922774</v>
+        <v>0.06688723450285033</v>
       </c>
       <c r="J93">
         <v>0.4527472211922774</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.4527472211922774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>13.77000045776367</v>
       </c>
       <c r="F94">
-        <v>9.69902515411377</v>
+        <v>9.699028015136719</v>
       </c>
       <c r="G94">
         <v>323900</v>
@@ -3334,13 +3610,16 @@
         <v>0.04160364444973452</v>
       </c>
       <c r="I94">
-        <v>0.4299065725985307</v>
+        <v>0.06662846613492529</v>
       </c>
       <c r="J94">
         <v>0.4299065725985307</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.4299065725985307</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3366,13 +3645,16 @@
         <v>0.03485835339719978</v>
       </c>
       <c r="I95">
-        <v>0.5095339654052606</v>
+        <v>0.06633604712497636</v>
       </c>
       <c r="J95">
         <v>0.5095339654052606</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.5095339654052606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="F96">
-        <v>10.25113487243652</v>
+        <v>10.25113773345947</v>
       </c>
       <c r="G96">
         <v>893800</v>
@@ -3398,13 +3680,16 @@
         <v>0.004210555762575341</v>
       </c>
       <c r="I96">
-        <v>0.4542683127757079</v>
+        <v>0.0659786053627521</v>
       </c>
       <c r="J96">
         <v>0.4542683127757079</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4542683127757079</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>14.6899995803833</v>
       </c>
       <c r="F97">
-        <v>10.52335262298584</v>
+        <v>10.52335357666016</v>
       </c>
       <c r="G97">
         <v>181300</v>
@@ -3430,13 +3715,16 @@
         <v>0.02655479731822252</v>
       </c>
       <c r="I97">
-        <v>0.4689999580383302</v>
+        <v>0.06566179902573646</v>
       </c>
       <c r="J97">
         <v>0.4689999580383302</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.4689999580383302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>14.59000015258789</v>
       </c>
       <c r="F98">
-        <v>10.45171928405762</v>
+        <v>10.45171546936035</v>
       </c>
       <c r="G98">
         <v>274200</v>
@@ -3462,13 +3750,16 @@
         <v>-0.006807313182564445</v>
       </c>
       <c r="I98">
-        <v>0.4948770297579601</v>
+        <v>0.06532808461170059</v>
       </c>
       <c r="J98">
         <v>0.4948770297579601</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.4948770297579601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>13.35999965667725</v>
       </c>
       <c r="F99">
-        <v>9.570592880249023</v>
+        <v>9.570591926574707</v>
       </c>
       <c r="G99">
         <v>366100</v>
@@ -3494,13 +3785,16 @@
         <v>-0.08430435113412071</v>
       </c>
       <c r="I99">
-        <v>0.2723809196835472</v>
+        <v>0.06562669261595341</v>
       </c>
       <c r="J99">
         <v>0.2723809196835472</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.2723809196835472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>13.59000015258789</v>
       </c>
       <c r="F100">
-        <v>9.735355377197266</v>
+        <v>9.735357284545898</v>
       </c>
       <c r="G100">
         <v>121300</v>
@@ -3526,13 +3820,16 @@
         <v>0.01721560642373898</v>
       </c>
       <c r="I100">
-        <v>0.1817391437032949</v>
+        <v>0.06529958512774882</v>
       </c>
       <c r="J100">
         <v>0.1817391437032949</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.1817391437032949</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>14.36999988555908</v>
       </c>
       <c r="F101">
-        <v>10.29411888122559</v>
+        <v>10.29411792755127</v>
       </c>
       <c r="G101">
         <v>126800</v>
@@ -3558,13 +3855,16 @@
         <v>0.05739512319451001</v>
       </c>
       <c r="I101">
-        <v>0.2177965807866795</v>
+        <v>0.06517925891419649</v>
       </c>
       <c r="J101">
         <v>0.2177965807866795</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2177965807866795</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>14.35999965667725</v>
       </c>
       <c r="F102">
-        <v>10.28695583343506</v>
+        <v>10.28695392608643</v>
       </c>
       <c r="G102">
         <v>17700</v>
@@ -3590,13 +3890,16 @@
         <v>-0.0006959101573748017</v>
       </c>
       <c r="I102">
-        <v>0.2315608786105079</v>
+        <v>0.06485215105185983</v>
       </c>
       <c r="J102">
         <v>0.2315608786105079</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2315608786105079</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3622,13 +3925,16 @@
         <v>-0.005571025460913259</v>
       </c>
       <c r="I103">
-        <v>0.1590909161280574</v>
+        <v>0.06453629615052216</v>
       </c>
       <c r="J103">
         <v>0.1590909161280574</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.1590909161280574</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.08263307613733839</v>
       </c>
       <c r="I104">
-        <v>0.2457695590843127</v>
+        <v>0.06467111137829835</v>
       </c>
       <c r="J104">
         <v>0.2457695590843127</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2457695590843127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>16.45000076293945</v>
       </c>
       <c r="F105">
-        <v>11.78414916992188</v>
+        <v>11.78415107727051</v>
       </c>
       <c r="G105">
         <v>46000</v>
@@ -3686,13 +3995,16 @@
         <v>0.06403626923348571</v>
       </c>
       <c r="I105">
-        <v>0.2443268101867131</v>
+        <v>0.0646065234004653</v>
       </c>
       <c r="J105">
         <v>0.2443268101867131</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.2443268101867131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>17.27000045776367</v>
       </c>
       <c r="F106">
-        <v>12.37156963348389</v>
+        <v>12.37156677246094</v>
       </c>
       <c r="G106">
         <v>237400</v>
@@ -3718,13 +4030,16 @@
         <v>0.04984800345247486</v>
       </c>
       <c r="I106">
-        <v>0.2541757359221193</v>
+        <v>0.0644318154013124</v>
       </c>
       <c r="J106">
         <v>0.2541757359221193</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.2541757359221193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>17.29000091552734</v>
       </c>
       <c r="F107">
-        <v>12.53246688842773</v>
+        <v>12.53246593475342</v>
       </c>
       <c r="G107">
         <v>52300</v>
@@ -3750,13 +4065,16 @@
         <v>0.001158104066794063</v>
       </c>
       <c r="I107">
-        <v>0.2133333975808662</v>
+        <v>0.06412385140464752</v>
       </c>
       <c r="J107">
         <v>0.2133333975808662</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.2133333975808662</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>16.5</v>
       </c>
       <c r="F108">
-        <v>11.95984172821045</v>
+        <v>11.95984077453613</v>
       </c>
       <c r="G108">
         <v>108200</v>
@@ -3782,13 +4100,16 @@
         <v>-0.04569120148616534</v>
       </c>
       <c r="I108">
-        <v>0.1530397984741612</v>
+        <v>0.06402237931254934</v>
       </c>
       <c r="J108">
         <v>0.1530397984741612</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.1530397984741612</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>17.60000038146973</v>
       </c>
       <c r="F109">
-        <v>12.75716304779053</v>
+        <v>12.75716686248779</v>
       </c>
       <c r="G109">
         <v>369000</v>
@@ -3814,13 +4135,16 @@
         <v>0.06666668978604395</v>
       </c>
       <c r="I109">
-        <v>0.1980940016480583</v>
+        <v>0.06398487495432527</v>
       </c>
       <c r="J109">
         <v>0.1980940016480583</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1980940016480583</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3846,13 +4170,16 @@
         <v>0.01420454514667013</v>
       </c>
       <c r="I110">
-        <v>0.2234407261677509</v>
+        <v>0.06368891921842058</v>
       </c>
       <c r="J110">
         <v>0.2234407261677509</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.2234407261677509</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>16.76000022888184</v>
       </c>
       <c r="F111">
-        <v>12.14830017089844</v>
+        <v>12.14829921722412</v>
       </c>
       <c r="G111">
         <v>80200</v>
@@ -3878,13 +4205,16 @@
         <v>-0.06106443301365028</v>
       </c>
       <c r="I111">
-        <v>0.25449106733362</v>
+        <v>0.06372867796715656</v>
       </c>
       <c r="J111">
         <v>0.25449106733362</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.25449106733362</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>17.21999931335449</v>
       </c>
       <c r="F112">
-        <v>12.48172378540039</v>
+        <v>12.48172760009766</v>
       </c>
       <c r="G112">
         <v>73900</v>
@@ -3910,13 +4240,16 @@
         <v>0.02744624571543608</v>
       </c>
       <c r="I112">
-        <v>0.2671081030175968</v>
+        <v>0.06346718537445478</v>
       </c>
       <c r="J112">
         <v>0.2671081030175968</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.2671081030175968</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>18.14999961853027</v>
       </c>
       <c r="F113">
-        <v>13.15582370758057</v>
+        <v>13.15582466125488</v>
       </c>
       <c r="G113">
         <v>85300</v>
@@ -3942,13 +4275,16 @@
         <v>0.05400698851680819</v>
       </c>
       <c r="I113">
-        <v>0.2630480002139628</v>
+        <v>0.06333765253636538</v>
       </c>
       <c r="J113">
         <v>0.2630480002139628</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.2630480002139628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>19.20999908447266</v>
       </c>
       <c r="F114">
-        <v>13.92415523529053</v>
+        <v>13.92415237426758</v>
       </c>
       <c r="G114">
         <v>98700</v>
@@ -3974,13 +4310,16 @@
         <v>0.05840217565956163</v>
       </c>
       <c r="I114">
-        <v>0.3377437008182804</v>
+        <v>0.06323785484555039</v>
       </c>
       <c r="J114">
         <v>0.3377437008182804</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.3377437008182804</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F115">
-        <v>14.78671455383301</v>
+        <v>14.78671169281006</v>
       </c>
       <c r="G115">
         <v>557600</v>
@@ -4006,13 +4345,16 @@
         <v>0.06194693340821078</v>
       </c>
       <c r="I115">
-        <v>0.4285714285714286</v>
+        <v>0.06316256263898343</v>
       </c>
       <c r="J115">
         <v>0.4285714285714286</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>21.56999969482422</v>
       </c>
       <c r="F116">
-        <v>15.63477611541748</v>
+        <v>15.63477420806885</v>
       </c>
       <c r="G116">
         <v>487200</v>
@@ -4038,13 +4380,16 @@
         <v>0.05735294598884111</v>
       </c>
       <c r="I116">
-        <v>0.395213430892694</v>
+        <v>0.06305192254508238</v>
       </c>
       <c r="J116">
         <v>0.395213430892694</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.395213430892694</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4070,13 +4415,16 @@
         <v>-0.07278626411853606</v>
       </c>
       <c r="I117">
-        <v>0.2158054147364183</v>
+        <v>0.06323032001451728</v>
       </c>
       <c r="J117">
         <v>0.2158054147364183</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.2158054147364183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4102,13 +4450,16 @@
         <v>0.0524999618530273</v>
       </c>
       <c r="I118">
-        <v>0.2188765882514838</v>
+        <v>0.06309173600048013</v>
       </c>
       <c r="J118">
         <v>0.2188765882514838</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.2188765882514838</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>21.89999961853027</v>
       </c>
       <c r="F119">
-        <v>15.98236274719238</v>
+        <v>15.98235988616943</v>
       </c>
       <c r="G119">
         <v>193000</v>
@@ -4134,13 +4485,16 @@
         <v>0.04038006709155684</v>
       </c>
       <c r="I119">
-        <v>0.2666280196007915</v>
+        <v>0.06288986803007485</v>
       </c>
       <c r="J119">
         <v>0.2666280196007915</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.2666280196007915</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="F120">
-        <v>17.42734336853027</v>
+        <v>17.42734527587891</v>
       </c>
       <c r="G120">
         <v>1232100</v>
@@ -4166,13 +4520,16 @@
         <v>0.0904109395765007</v>
       </c>
       <c r="I120">
-        <v>0.4472726764100972</v>
+        <v>0.0630738190282433</v>
       </c>
       <c r="J120">
         <v>0.4472726764100972</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.4472726764100972</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>23.34000015258789</v>
       </c>
       <c r="F121">
-        <v>17.03325653076172</v>
+        <v>17.03326225280762</v>
       </c>
       <c r="G121">
         <v>1282800</v>
@@ -4198,13 +4555,16 @@
         <v>-0.02261302458778547</v>
       </c>
       <c r="I121">
-        <v>0.326136343562899</v>
+        <v>0.06287328117863078</v>
       </c>
       <c r="J121">
         <v>0.326136343562899</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.326136343562899</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>23.6299991607666</v>
       </c>
       <c r="F122">
-        <v>17.24489212036133</v>
+        <v>17.24489784240723</v>
       </c>
       <c r="G122">
         <v>306700</v>
@@ -4230,13 +4590,16 @@
         <v>0.01242497884673566</v>
       </c>
       <c r="I122">
-        <v>0.3238094485027099</v>
+        <v>0.0626094035684962</v>
       </c>
       <c r="J122">
         <v>0.3238094485027099</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.3238094485027099</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4262,13 +4625,16 @@
         <v>0.0520525388603128</v>
       </c>
       <c r="I123">
-        <v>0.4832935722465757</v>
+        <v>0.06268521025783608</v>
       </c>
       <c r="J123">
         <v>0.4832935722465757</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.4832935722465757</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F124">
-        <v>17.73385429382324</v>
+        <v>17.73385620117188</v>
       </c>
       <c r="G124">
         <v>1017600</v>
@@ -4294,13 +4660,16 @@
         <v>-0.02252620110788872</v>
       </c>
       <c r="I124">
-        <v>0.4111498377479816</v>
+        <v>0.06273702831388472</v>
       </c>
       <c r="J124">
         <v>0.4111498377479816</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.4111498377479816</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>23.75</v>
       </c>
       <c r="F125">
-        <v>17.33247375488281</v>
+        <v>17.33247184753418</v>
       </c>
       <c r="G125">
         <v>636300</v>
@@ -4326,13 +4695,16 @@
         <v>-0.02263371416990534</v>
       </c>
       <c r="I125">
-        <v>0.3085399724059716</v>
+        <v>0.06275711272100711</v>
       </c>
       <c r="J125">
         <v>0.3085399724059716</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.3085399724059716</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>23.78000068664551</v>
       </c>
       <c r="F126">
-        <v>17.35437202453613</v>
+        <v>17.35436820983887</v>
       </c>
       <c r="G126">
         <v>208700</v>
@@ -4358,13 +4730,16 @@
         <v>0.001263186806126582</v>
       </c>
       <c r="I126">
-        <v>0.2378970234239501</v>
+        <v>0.06271343345262437</v>
       </c>
       <c r="J126">
         <v>0.2378970234239501</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2378970234239501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>24.75</v>
       </c>
       <c r="F127">
-        <v>18.06225967407227</v>
+        <v>18.06225776672363</v>
       </c>
       <c r="G127">
         <v>388100</v>
@@ -4390,13 +4765,16 @@
         <v>0.04079055026685641</v>
       </c>
       <c r="I127">
-        <v>0.2132353168045364</v>
+        <v>0.06276573304166995</v>
       </c>
       <c r="J127">
         <v>0.2132353168045364</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.2132353168045364</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>24</v>
       </c>
       <c r="F128">
-        <v>17.51492118835449</v>
+        <v>17.51491928100586</v>
       </c>
       <c r="G128">
         <v>324900</v>
@@ -4422,13 +4800,16 @@
         <v>-0.03030303030303028</v>
       </c>
       <c r="I128">
-        <v>0.1126564830577568</v>
+        <v>0.06279815652688454</v>
       </c>
       <c r="J128">
         <v>0.1126564830577568</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.1126564830577568</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F129">
-        <v>18.34686851501465</v>
+        <v>18.34687232971191</v>
       </c>
       <c r="G129">
         <v>424800</v>
@@ -4454,13 +4835,16 @@
         <v>0.04749997456868482</v>
       </c>
       <c r="I129">
-        <v>0.2569999694824219</v>
+        <v>0.06250966305850569</v>
       </c>
       <c r="J129">
         <v>0.2569999694824219</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2569999694824219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F130">
-        <v>18.8066520690918</v>
+        <v>18.80664443969727</v>
       </c>
       <c r="G130">
         <v>485300</v>
@@ -4486,13 +4870,16 @@
         <v>0.02505970896620791</v>
       </c>
       <c r="I130">
-        <v>0.2242280946211679</v>
+        <v>0.06236610682567914</v>
       </c>
       <c r="J130">
         <v>0.2242280946211679</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.2242280946211679</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>25.31999969482422</v>
       </c>
       <c r="F131">
-        <v>18.68676376342773</v>
+        <v>18.6867618560791</v>
       </c>
       <c r="G131">
         <v>118800</v>
@@ -4518,13 +4905,16 @@
         <v>-0.01746219460403164</v>
       </c>
       <c r="I131">
-        <v>0.1561643897655678</v>
+        <v>0.0622881005630475</v>
       </c>
       <c r="J131">
         <v>0.1561643897655678</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.1561643897655678</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>25.34000015258789</v>
       </c>
       <c r="F132">
-        <v>18.70152854919434</v>
+        <v>18.70153045654297</v>
       </c>
       <c r="G132">
         <v>440600</v>
@@ -4550,13 +4940,16 @@
         <v>0.0007899075041364334</v>
       </c>
       <c r="I132">
-        <v>0.06113907215792458</v>
+        <v>0.06216583949802478</v>
       </c>
       <c r="J132">
         <v>0.06113907215792458</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.06113907215792458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F133">
-        <v>18.81222915649414</v>
+        <v>18.81222534179688</v>
       </c>
       <c r="G133">
         <v>238900</v>
@@ -4582,13 +4975,16 @@
         <v>0.005919479780072345</v>
       </c>
       <c r="I133">
-        <v>0.09211652118570735</v>
+        <v>0.06214548830563797</v>
       </c>
       <c r="J133">
         <v>0.09211652118570735</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.09211652118570735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4614,13 +5010,16 @@
         <v>0.02589250111174701</v>
       </c>
       <c r="I134">
-        <v>0.1066441196471848</v>
+        <v>0.06186280506475778</v>
       </c>
       <c r="J134">
         <v>0.1066441196471848</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.1066441196471848</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>27.75</v>
       </c>
       <c r="F135">
-        <v>20.48016166687012</v>
+        <v>20.48016357421875</v>
       </c>
       <c r="G135">
         <v>217000</v>
@@ -4646,13 +5045,16 @@
         <v>0.06118548393155399</v>
       </c>
       <c r="I135">
-        <v>0.1162509782258436</v>
+        <v>0.06204638645024684</v>
       </c>
       <c r="J135">
         <v>0.1162509782258436</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.1162509782258436</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>30.10000038146973</v>
       </c>
       <c r="F136">
-        <v>22.21451950073242</v>
+        <v>22.21452140808105</v>
       </c>
       <c r="G136">
         <v>1700200</v>
@@ -4678,13 +5080,16 @@
         <v>0.08468469843134141</v>
       </c>
       <c r="I136">
-        <v>0.2386831821609052</v>
+        <v>0.06202034532508895</v>
       </c>
       <c r="J136">
         <v>0.2386831821609052</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.2386831821609052</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>29.86000061035156</v>
       </c>
       <c r="F137">
-        <v>22.03739356994629</v>
+        <v>22.03739547729492</v>
       </c>
       <c r="G137">
         <v>758700</v>
@@ -4710,13 +5115,16 @@
         <v>-0.007973414221812192</v>
       </c>
       <c r="I137">
-        <v>0.25726318359375</v>
+        <v>0.06203936288171203</v>
       </c>
       <c r="J137">
         <v>0.25726318359375</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.25726318359375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>29.86000061035156</v>
       </c>
       <c r="F138">
-        <v>22.03739356994629</v>
+        <v>22.03739547729492</v>
       </c>
       <c r="G138">
         <v>522400</v>
@@ -4742,13 +5150,16 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>0.2556770289380392</v>
+        <v>0.06165439589826534</v>
       </c>
       <c r="J138">
         <v>0.2556770289380392</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.2556770289380392</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>29.89999961853027</v>
       </c>
       <c r="F139">
-        <v>22.0669116973877</v>
+        <v>22.06690979003906</v>
       </c>
       <c r="G139">
         <v>479400</v>
@@ -4774,13 +5185,16 @@
         <v>0.001339551485636692</v>
       </c>
       <c r="I139">
-        <v>0.2080807926678898</v>
+        <v>0.06120220810686727</v>
       </c>
       <c r="J139">
         <v>0.2080807926678898</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.2080807926678898</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4806,13 +5220,16 @@
         <v>0.09464882808734831</v>
       </c>
       <c r="I140">
-        <v>0.3637499809265137</v>
+        <v>0.06155539028117515</v>
       </c>
       <c r="J140">
         <v>0.3637499809265137</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.3637499809265137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>36.08000183105469</v>
       </c>
       <c r="F141">
-        <v>26.62790489196777</v>
+        <v>26.62790107727051</v>
       </c>
       <c r="G141">
         <v>1251500</v>
@@ -4838,13 +5255,16 @@
         <v>0.1023526530910994</v>
       </c>
       <c r="I141">
-        <v>0.4351631943917575</v>
+        <v>0.06183607927692283</v>
       </c>
       <c r="J141">
         <v>0.4351631943917575</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.4351631943917575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4870,13 +5290,16 @@
         <v>-0.1155765457875721</v>
       </c>
       <c r="I142">
-        <v>0.2382615165145894</v>
+        <v>0.06280094638627164</v>
       </c>
       <c r="J142">
         <v>0.2382615165145894</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.2382615165145894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>32.11999893188477</v>
       </c>
       <c r="F143">
-        <v>23.99740791320801</v>
+        <v>23.99740982055664</v>
       </c>
       <c r="G143">
         <v>583300</v>
@@ -4902,13 +5325,16 @@
         <v>0.006580980428606553</v>
       </c>
       <c r="I143">
-        <v>0.2685623743688499</v>
+        <v>0.06278736074213351</v>
       </c>
       <c r="J143">
         <v>0.2685623743688499</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.2685623743688499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>30.28000068664551</v>
       </c>
       <c r="F144">
-        <v>22.62271881103516</v>
+        <v>22.62271308898926</v>
       </c>
       <c r="G144">
         <v>1531400</v>
@@ -4934,13 +5360,16 @@
         <v>-0.05728512784640027</v>
       </c>
       <c r="I144">
-        <v>0.1949487176128968</v>
+        <v>0.06305958846089424</v>
       </c>
       <c r="J144">
         <v>0.1949487176128968</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0.1949487176128968</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>32.0099983215332</v>
       </c>
       <c r="F145">
-        <v>23.91522598266602</v>
+        <v>23.91522216796875</v>
       </c>
       <c r="G145">
         <v>1717700</v>
@@ -4966,13 +5395,16 @@
         <v>0.0571333419966098</v>
       </c>
       <c r="I145">
-        <v>0.2557865284017233</v>
+        <v>0.06272202502955</v>
       </c>
       <c r="J145">
         <v>0.2557865284017233</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0.2557865284017233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>30.30999946594238</v>
       </c>
       <c r="F146">
-        <v>22.64512825012207</v>
+        <v>22.64512634277344</v>
       </c>
       <c r="G146">
         <v>1227900</v>
@@ -4998,13 +5430,16 @@
         <v>-0.05310837065702767</v>
       </c>
       <c r="I146">
-        <v>0.1590822144587822</v>
+        <v>0.06281968112361459</v>
       </c>
       <c r="J146">
         <v>0.1590822144587822</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0.1590822144587822</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>32.45999908447266</v>
       </c>
       <c r="F147">
-        <v>24.25142860412598</v>
+        <v>24.25142669677734</v>
       </c>
       <c r="G147">
         <v>924900</v>
@@ -5030,13 +5465,16 @@
         <v>0.07093367391662619</v>
       </c>
       <c r="I147">
-        <v>0.1697296967377533</v>
+        <v>0.06307889139119957</v>
       </c>
       <c r="J147">
         <v>0.1697296967377533</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0.1697296967377533</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>35.0099983215332</v>
       </c>
       <c r="F148">
-        <v>26.15657424926758</v>
+        <v>26.15657806396484</v>
       </c>
       <c r="G148">
         <v>659500</v>
@@ -5062,13 +5500,16 @@
         <v>0.07855820422004722</v>
       </c>
       <c r="I148">
-        <v>0.1631228530842872</v>
+        <v>0.06336032480045314</v>
       </c>
       <c r="J148">
         <v>0.1631228530842872</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0.1631228530842872</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>33.15999984741211</v>
       </c>
       <c r="F149">
-        <v>24.86098098754883</v>
+        <v>24.86098670959473</v>
       </c>
       <c r="G149">
         <v>1139400</v>
@@ -5094,13 +5535,16 @@
         <v>-0.05284200407925288</v>
       </c>
       <c r="I149">
-        <v>0.1105157123110216</v>
+        <v>0.063554815369636</v>
       </c>
       <c r="J149">
         <v>0.1105157123110216</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>0.1105157123110216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F150">
-        <v>23.50397872924805</v>
+        <v>23.50397491455078</v>
       </c>
       <c r="G150">
         <v>2917900</v>
@@ -5126,13 +5570,16 @@
         <v>-0.05458382009261797</v>
       </c>
       <c r="I150">
-        <v>0.04989952246021145</v>
+        <v>0.06338448985769034</v>
       </c>
       <c r="J150">
         <v>0.04989952246021145</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>0.04989952246021145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>30.3799991607666</v>
       </c>
       <c r="F151">
-        <v>22.77673530578613</v>
+        <v>22.7767391204834</v>
       </c>
       <c r="G151">
         <v>641600</v>
@@ -5158,13 +5605,16 @@
         <v>-0.03094102739713112</v>
       </c>
       <c r="I151">
-        <v>0.01605349660067734</v>
+        <v>0.05823339961877819</v>
       </c>
       <c r="J151">
         <v>0.01605349660067734</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>0.01605349660067734</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>26.34000015258789</v>
       </c>
       <c r="F152">
-        <v>19.74783897399902</v>
+        <v>19.74783515930176</v>
       </c>
       <c r="G152">
         <v>1380300</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1329821961745165</v>
       </c>
       <c r="I152">
-        <v>-0.1952337146049294</v>
+        <v>0.05961709070646196</v>
       </c>
       <c r="J152">
         <v>-0.1952337146049294</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.1952337146049294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>19.18000030517578</v>
       </c>
       <c r="F153">
-        <v>14.37978553771973</v>
+        <v>14.37978267669678</v>
       </c>
       <c r="G153">
         <v>2620200</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2718299091091175</v>
       </c>
       <c r="I153">
-        <v>-0.4684035661919723</v>
+        <v>0.0644686790499316</v>
       </c>
       <c r="J153">
         <v>-0.4684035661919723</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.4684035661919723</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>17.11000061035156</v>
       </c>
       <c r="F154">
-        <v>12.82785034179688</v>
+        <v>12.82784843444824</v>
       </c>
       <c r="G154">
         <v>736500</v>
@@ -5254,13 +5710,16 @@
         <v>-0.10792490416518</v>
       </c>
       <c r="I154">
-        <v>-0.4638044283243963</v>
+        <v>0.06526131627042034</v>
       </c>
       <c r="J154">
         <v>-0.4638044283243963</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.4638044283243963</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5277,7 +5736,7 @@
         <v>17.43000030517578</v>
       </c>
       <c r="F155">
-        <v>13.33461570739746</v>
+        <v>13.33461475372314</v>
       </c>
       <c r="G155">
         <v>960800</v>
@@ -5286,13 +5745,16 @@
         <v>0.01870249464693874</v>
       </c>
       <c r="I155">
-        <v>-0.4573474195270464</v>
+        <v>0.06524287488854748</v>
       </c>
       <c r="J155">
         <v>-0.4573474195270464</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4573474195270464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F156">
-        <v>12.77613830566406</v>
+        <v>12.77613544464111</v>
       </c>
       <c r="G156">
         <v>1373600</v>
@@ -5318,13 +5780,16 @@
         <v>-0.04188178596988079</v>
       </c>
       <c r="I156">
-        <v>-0.4484808327529295</v>
+        <v>0.06495805401709906</v>
       </c>
       <c r="J156">
         <v>-0.4484808327529295</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.4484808327529295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>15.09000015258789</v>
       </c>
       <c r="F157">
-        <v>11.54442501068115</v>
+        <v>11.5444278717041</v>
       </c>
       <c r="G157">
         <v>2449300</v>
@@ -5350,13 +5815,16 @@
         <v>-0.09640721777237682</v>
       </c>
       <c r="I157">
-        <v>-0.528584787758742</v>
+        <v>0.06542392964222556</v>
       </c>
       <c r="J157">
         <v>-0.528584787758742</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.528584787758742</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>16.45999908447266</v>
       </c>
       <c r="F158">
-        <v>12.59252834320068</v>
+        <v>12.59252643585205</v>
       </c>
       <c r="G158">
         <v>1356400</v>
@@ -5382,13 +5850,16 @@
         <v>0.09078853002197063</v>
       </c>
       <c r="I158">
-        <v>-0.4569449233092922</v>
+        <v>0.06581186990130429</v>
       </c>
       <c r="J158">
         <v>-0.4569449233092922</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.4569449233092922</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>18.73999977111816</v>
       </c>
       <c r="F159">
-        <v>14.33681869506836</v>
+        <v>14.33681392669678</v>
       </c>
       <c r="G159">
         <v>2625800</v>
@@ -5414,13 +5885,16 @@
         <v>0.1385176678895639</v>
       </c>
       <c r="I159">
-        <v>-0.4226740511498503</v>
+        <v>0.06636655699170267</v>
       </c>
       <c r="J159">
         <v>-0.4226740511498503</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4226740511498503</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>23.10000038146973</v>
       </c>
       <c r="F160">
-        <v>17.67238235473633</v>
+        <v>17.6723804473877</v>
       </c>
       <c r="G160">
         <v>5637800</v>
@@ -5446,13 +5920,16 @@
         <v>0.232657452700247</v>
       </c>
       <c r="I160">
-        <v>-0.340188475037376</v>
+        <v>0.06940705699102635</v>
       </c>
       <c r="J160">
         <v>-0.340188475037376</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.340188475037376</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>21.42000007629395</v>
       </c>
       <c r="F161">
-        <v>16.45916748046875</v>
+        <v>16.45916557312012</v>
       </c>
       <c r="G161">
         <v>3036300</v>
@@ -5478,13 +5955,16 @@
         <v>-0.07272728473733869</v>
       </c>
       <c r="I161">
-        <v>-0.3540410079957942</v>
+        <v>0.06953337856863223</v>
       </c>
       <c r="J161">
         <v>-0.3540410079957942</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3540410079957942</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>24.20000076293945</v>
       </c>
       <c r="F162">
-        <v>18.5953254699707</v>
+        <v>18.59532356262207</v>
       </c>
       <c r="G162">
         <v>3104400</v>
@@ -5510,13 +5990,16 @@
         <v>0.1297852790263154</v>
       </c>
       <c r="I162">
-        <v>-0.2280701604953241</v>
+        <v>0.07043051690462528</v>
       </c>
       <c r="J162">
         <v>-0.2280701604953241</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.2280701604953241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5542,13 +6025,16 @@
         <v>-0.01735537450631597</v>
       </c>
       <c r="I163">
-        <v>-0.2172481453733704</v>
+        <v>0.07035570054948459</v>
       </c>
       <c r="J163">
         <v>-0.2172481453733704</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.2172481453733704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>25.47999954223633</v>
       </c>
       <c r="F164">
-        <v>19.57887649536133</v>
+        <v>19.57888031005859</v>
       </c>
       <c r="G164">
         <v>2512100</v>
@@ -5574,13 +6060,16 @@
         <v>0.07148859573185429</v>
       </c>
       <c r="I164">
-        <v>-0.03264998501782723</v>
+        <v>0.07059558941146878</v>
       </c>
       <c r="J164">
         <v>-0.03264998501782723</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.03264998501782723</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5606,13 +6095,16 @@
         <v>-0.06397171075551522</v>
       </c>
       <c r="I165">
-        <v>0.2434827946813813</v>
+        <v>0.07075908518759028</v>
       </c>
       <c r="J165">
         <v>0.2434827946813813</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.2434827946813813</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>25.90999984741211</v>
       </c>
       <c r="F166">
-        <v>19.90928840637207</v>
+        <v>19.90929222106934</v>
       </c>
       <c r="G166">
         <v>2419300</v>
@@ -5638,13 +6130,16 @@
         <v>0.08637314184459721</v>
       </c>
       <c r="I166">
-        <v>0.5143190486934606</v>
+        <v>0.07095539789122625</v>
       </c>
       <c r="J166">
         <v>0.5143190486934606</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.5143190486934606</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>26.32999992370605</v>
       </c>
       <c r="F167">
-        <v>20.42241477966309</v>
+        <v>20.42241859436035</v>
       </c>
       <c r="G167">
         <v>1469800</v>
@@ -5670,13 +6165,16 @@
         <v>0.01620996058538737</v>
       </c>
       <c r="I167">
-        <v>0.5106138532818871</v>
+        <v>0.0704937109180491</v>
       </c>
       <c r="J167">
         <v>0.5106138532818871</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.5106138532818871</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>24.44000053405762</v>
       </c>
       <c r="F168">
-        <v>18.95647048950195</v>
+        <v>18.95647430419922</v>
       </c>
       <c r="G168">
         <v>6228500</v>
@@ -5702,13 +6200,16 @@
         <v>-0.07178121515856095</v>
       </c>
       <c r="I168">
-        <v>0.4634730190129528</v>
+        <v>0.07085267875879886</v>
       </c>
       <c r="J168">
         <v>0.4634730190129528</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.4634730190129528</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>25.90999984741211</v>
       </c>
       <c r="F169">
-        <v>20.09665298461914</v>
+        <v>20.09665489196777</v>
       </c>
       <c r="G169">
         <v>3795900</v>
@@ -5734,13 +6235,16 @@
         <v>0.0601472700995247</v>
       </c>
       <c r="I169">
-        <v>0.7170311189803813</v>
+        <v>0.07095337893775887</v>
       </c>
       <c r="J169">
         <v>0.7170311189803813</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.7170311189803813</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>27.90999984741211</v>
       </c>
       <c r="F170">
-        <v>21.64792251586914</v>
+        <v>21.64791297912598</v>
       </c>
       <c r="G170">
         <v>3158100</v>
@@ -5766,13 +6270,16 @@
         <v>0.07719027448005789</v>
       </c>
       <c r="I170">
-        <v>0.6956258444595342</v>
+        <v>0.071073316307751</v>
       </c>
       <c r="J170">
         <v>0.6956258444595342</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.6956258444595342</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>28.22999954223633</v>
       </c>
       <c r="F171">
-        <v>21.89612197875977</v>
+        <v>21.89612007141113</v>
       </c>
       <c r="G171">
         <v>4581500</v>
@@ -5798,13 +6305,16 @@
         <v>0.01146541370740595</v>
       </c>
       <c r="I171">
-        <v>0.5064034091261849</v>
+        <v>0.07103338744426922</v>
       </c>
       <c r="J171">
         <v>0.5064034091261849</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.5064034091261849</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>26.17000007629395</v>
       </c>
       <c r="F172">
-        <v>20.29831504821777</v>
+        <v>20.29831886291504</v>
       </c>
       <c r="G172">
         <v>3695900</v>
@@ -5830,13 +6340,16 @@
         <v>-0.0729719978514457</v>
       </c>
       <c r="I172">
-        <v>0.1329004174946637</v>
+        <v>0.07140088621033361</v>
       </c>
       <c r="J172">
         <v>0.1329004174946637</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.1329004174946637</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="F173">
-        <v>19.4190731048584</v>
+        <v>19.41907119750977</v>
       </c>
       <c r="G173">
         <v>8483300</v>
@@ -5862,13 +6375,16 @@
         <v>-0.04967517131336008</v>
       </c>
       <c r="I173">
-        <v>0.1610644608147156</v>
+        <v>0.07104571672058853</v>
       </c>
       <c r="J173">
         <v>0.1610644608147156</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.1610644608147156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5894,13 +6410,16 @@
         <v>0.07197422387517238</v>
       </c>
       <c r="I174">
-        <v>0.1016528515255242</v>
+        <v>0.0712807607836559</v>
       </c>
       <c r="J174">
         <v>0.1016528515255242</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.1016528515255242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>26.10000038146973</v>
       </c>
       <c r="F175">
-        <v>20.37948989868164</v>
+        <v>20.37948226928711</v>
       </c>
       <c r="G175">
         <v>2160100</v>
@@ -5926,13 +6445,16 @@
         <v>-0.02100523140088251</v>
       </c>
       <c r="I175">
-        <v>0.0975609599593954</v>
+        <v>0.06946995886622678</v>
       </c>
       <c r="J175">
         <v>0.0975609599593954</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0.0975609599593954</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>28.03000068664551</v>
       </c>
       <c r="F176">
-        <v>21.886474609375</v>
+        <v>21.88647270202637</v>
       </c>
       <c r="G176">
         <v>2951200</v>
@@ -5958,13 +6480,16 @@
         <v>0.07394637076503763</v>
       </c>
       <c r="I176">
-        <v>0.1000785396476256</v>
+        <v>0.06954086411838468</v>
       </c>
       <c r="J176">
         <v>0.1000785396476256</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.1000785396476256</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F177">
-        <v>22.58140563964844</v>
+        <v>22.58140182495117</v>
       </c>
       <c r="G177">
         <v>1739200</v>
@@ -5990,13 +6515,16 @@
         <v>0.03175167206016027</v>
       </c>
       <c r="I177">
-        <v>0.2125786001564745</v>
+        <v>0.06913797391765997</v>
       </c>
       <c r="J177">
         <v>0.2125786001564745</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.2125786001564745</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>29.32999992370605</v>
       </c>
       <c r="F178">
-        <v>22.90154266357422</v>
+        <v>22.90154647827148</v>
       </c>
       <c r="G178">
         <v>6056200</v>
@@ -6022,13 +6550,16 @@
         <v>0.01417703479704313</v>
       </c>
       <c r="I178">
-        <v>0.1319953723054743</v>
+        <v>0.06822982779405903</v>
       </c>
       <c r="J178">
         <v>0.1319953723054743</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0.1319953723054743</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>31</v>
       </c>
       <c r="F179">
-        <v>24.46284866333008</v>
+        <v>24.46285247802734</v>
       </c>
       <c r="G179">
         <v>1892100</v>
@@ -6054,13 +6585,16 @@
         <v>0.05693829119120331</v>
       </c>
       <c r="I179">
-        <v>0.1773642267309443</v>
+        <v>0.06836828530727926</v>
       </c>
       <c r="J179">
         <v>0.1773642267309443</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.1773642267309443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>31.29000091552734</v>
       </c>
       <c r="F180">
-        <v>24.69169616699219</v>
+        <v>24.69169998168945</v>
       </c>
       <c r="G180">
         <v>4713600</v>
@@ -6086,13 +6620,16 @@
         <v>0.009354868242817505</v>
       </c>
       <c r="I180">
-        <v>0.2802782418897298</v>
+        <v>0.06824384469996726</v>
       </c>
       <c r="J180">
         <v>0.2802782418897298</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.2802782418897298</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>33.66999816894531</v>
       </c>
       <c r="F181">
-        <v>26.56980895996094</v>
+        <v>26.56981468200684</v>
       </c>
       <c r="G181">
         <v>4269500</v>
@@ -6118,13 +6655,16 @@
         <v>0.07606254981721405</v>
       </c>
       <c r="I181">
-        <v>0.2994982002019684</v>
+        <v>0.06675488134840726</v>
       </c>
       <c r="J181">
         <v>0.2994982002019684</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.2994982002019684</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>33.61000061035156</v>
       </c>
       <c r="F182">
-        <v>26.52246475219727</v>
+        <v>26.5224666595459</v>
       </c>
       <c r="G182">
         <v>6803400</v>
@@ -6150,13 +6690,16 @@
         <v>-0.00178192936906918</v>
       </c>
       <c r="I182">
-        <v>0.2042279037657526</v>
+        <v>0.06616756956655687</v>
       </c>
       <c r="J182">
         <v>0.2042279037657526</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.2042279037657526</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6182,13 +6725,16 @@
         <v>0.00267777896321042</v>
       </c>
       <c r="I183">
-        <v>0.1937655440808344</v>
+        <v>0.06580244504180267</v>
       </c>
       <c r="J183">
         <v>0.1937655440808344</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.1937655440808344</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>32.90000152587891</v>
       </c>
       <c r="F184">
-        <v>25.96219253540039</v>
+        <v>25.96218681335449</v>
       </c>
       <c r="G184">
         <v>6080100</v>
@@ -6214,13 +6760,16 @@
         <v>-0.02373884922698044</v>
       </c>
       <c r="I184">
-        <v>0.2571647470372507</v>
+        <v>0.06584414099395593</v>
       </c>
       <c r="J184">
         <v>0.2571647470372507</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.2571647470372507</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6246,13 +6795,16 @@
         <v>-0.03738606056347593</v>
       </c>
       <c r="I185">
-        <v>0.2734217534216277</v>
+        <v>0.06569607040119026</v>
       </c>
       <c r="J185">
         <v>0.2734217534216277</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.2734217534216277</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>30.94000053405762</v>
       </c>
       <c r="F186">
-        <v>24.57856941223145</v>
+        <v>24.57857131958008</v>
       </c>
       <c r="G186">
         <v>3710500</v>
@@ -6278,13 +6830,16 @@
         <v>-0.02305019073185155</v>
       </c>
       <c r="I186">
-        <v>0.1605401617082518</v>
+        <v>0.06573534565738946</v>
       </c>
       <c r="J186">
         <v>0.1605401617082518</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1605401617082518</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>29.88999938964844</v>
       </c>
       <c r="F187">
-        <v>23.74445724487305</v>
+        <v>23.74445533752441</v>
       </c>
       <c r="G187">
         <v>3869100</v>
@@ -6310,13 +6865,16 @@
         <v>-0.03393668798594163</v>
       </c>
       <c r="I187">
-        <v>0.1452106878461774</v>
+        <v>0.0655676993727969</v>
       </c>
       <c r="J187">
         <v>0.1452106878461774</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.1452106878461774</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F188">
-        <v>20.24911689758301</v>
+        <v>20.24911880493164</v>
       </c>
       <c r="G188">
         <v>2988700</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1472064137965186</v>
       </c>
       <c r="I188">
-        <v>-0.09061722630415381</v>
+        <v>0.06638883986147917</v>
       </c>
       <c r="J188">
         <v>-0.09061722630415381</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.09061722630415381</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F189">
-        <v>22.43370246887207</v>
+        <v>22.43370628356934</v>
       </c>
       <c r="G189">
         <v>2550200</v>
@@ -6374,13 +6935,16 @@
         <v>0.1078854462413896</v>
       </c>
       <c r="I189">
-        <v>-0.02351315018609512</v>
+        <v>0.06697007320730644</v>
       </c>
       <c r="J189">
         <v>-0.02351315018609512</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.02351315018609512</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>27.45999908447266</v>
       </c>
       <c r="F190">
-        <v>21.81407356262207</v>
+        <v>21.8140754699707</v>
       </c>
       <c r="G190">
         <v>6618900</v>
@@ -6406,13 +6970,16 @@
         <v>-0.02762042113906937</v>
       </c>
       <c r="I190">
-        <v>-0.06375727392082142</v>
+        <v>0.0665402882779149</v>
       </c>
       <c r="J190">
         <v>-0.06375727392082142</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.06375727392082142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F191">
-        <v>21.42870330810547</v>
+        <v>21.4287052154541</v>
       </c>
       <c r="G191">
         <v>2737600</v>
@@ -6438,13 +7005,16 @@
         <v>-0.03131823494812924</v>
       </c>
       <c r="I191">
-        <v>-0.1419354715654927</v>
+        <v>0.06664419371015738</v>
       </c>
       <c r="J191">
         <v>-0.1419354715654927</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1419354715654927</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>28.11000061035156</v>
       </c>
       <c r="F192">
-        <v>22.64514923095703</v>
+        <v>22.64514541625977</v>
       </c>
       <c r="G192">
         <v>4552500</v>
@@ -6470,13 +7040,16 @@
         <v>0.05676692508372083</v>
       </c>
       <c r="I192">
-        <v>-0.1016299204899588</v>
+        <v>0.06677167303954888</v>
       </c>
       <c r="J192">
         <v>-0.1016299204899588</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1016299204899588</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>29.02000045776367</v>
       </c>
       <c r="F193">
-        <v>23.37823486328125</v>
+        <v>23.37823677062988</v>
       </c>
       <c r="G193">
         <v>3692600</v>
@@ -6502,13 +7075,16 @@
         <v>0.03237281492896882</v>
       </c>
       <c r="I193">
-        <v>-0.1381050776376475</v>
+        <v>0.06680162022930386</v>
       </c>
       <c r="J193">
         <v>-0.1381050776376475</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.1381050776376475</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6534,13 +7110,16 @@
         <v>-0.02343212592864941</v>
       </c>
       <c r="I194">
-        <v>-0.1567985826260462</v>
+        <v>0.06683951270123373</v>
       </c>
       <c r="J194">
         <v>-0.1567985826260462</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.1567985826260462</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>28.36000061035156</v>
       </c>
       <c r="F195">
-        <v>22.8465461730957</v>
+        <v>22.8465404510498</v>
       </c>
       <c r="G195">
         <v>1234600</v>
@@ -6566,13 +7145,16 @@
         <v>0.0007057324508110696</v>
       </c>
       <c r="I195">
-        <v>-0.1584569742342674</v>
+        <v>0.06684456032420025</v>
       </c>
       <c r="J195">
         <v>-0.1584569742342674</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.1584569742342674</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6598,13 +7180,16 @@
         <v>-0.1071932598766492</v>
       </c>
       <c r="I196">
-        <v>-0.2303951817477063</v>
+        <v>0.06769430029801091</v>
       </c>
       <c r="J196">
         <v>-0.2303951817477063</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.2303951817477063</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>25.84000015258789</v>
       </c>
       <c r="F197">
-        <v>20.98857498168945</v>
+        <v>20.98857307434082</v>
       </c>
       <c r="G197">
         <v>2015100</v>
@@ -6630,13 +7215,16 @@
         <v>0.02053714312919075</v>
       </c>
       <c r="I197">
-        <v>-0.1840858828437454</v>
+        <v>0.06739351344555483</v>
       </c>
       <c r="J197">
         <v>-0.1840858828437454</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.1840858828437454</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6662,13 +7250,16 @@
         <v>0.01741489010379849</v>
       </c>
       <c r="I198">
-        <v>-0.1502908706614832</v>
+        <v>0.0661913748066655</v>
       </c>
       <c r="J198">
         <v>-0.1502908706614832</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.1502908706614832</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6694,13 +7285,16 @@
         <v>0.04602506817555896</v>
       </c>
       <c r="I199">
-        <v>-0.07995983400642515</v>
+        <v>0.06618459514334184</v>
       </c>
       <c r="J199">
         <v>-0.07995983400642515</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.07995983400642515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>28.48999977111816</v>
       </c>
       <c r="F200">
-        <v>23.14103507995605</v>
+        <v>23.14103889465332</v>
       </c>
       <c r="G200">
         <v>2690200</v>
@@ -6726,13 +7320,16 @@
         <v>0.03599999167702417</v>
       </c>
       <c r="I200">
-        <v>0.1176932140815159</v>
+        <v>0.0652239271186133</v>
       </c>
       <c r="J200">
         <v>0.1176932140815159</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1176932140815159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>28.48999977111816</v>
       </c>
       <c r="F201">
-        <v>23.14103507995605</v>
+        <v>23.14103889465332</v>
       </c>
       <c r="G201">
         <v>3156100</v>
@@ -6758,13 +7355,16 @@
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0.00885269128988031</v>
+        <v>0.0650955997576326</v>
       </c>
       <c r="J201">
         <v>0.00885269128988031</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.00885269128988031</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6790,13 +7390,16 @@
         <v>-0.01333798398804575</v>
       </c>
       <c r="I202">
-        <v>0.02367085023853677</v>
+        <v>0.06499352873018741</v>
       </c>
       <c r="J202">
         <v>0.02367085023853677</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.02367085023853677</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>28.39999961853027</v>
       </c>
       <c r="F203">
-        <v>23.3758602142334</v>
+        <v>23.3758544921875</v>
       </c>
       <c r="G203">
         <v>2003700</v>
@@ -6822,13 +7425,16 @@
         <v>0.01031657779729533</v>
       </c>
       <c r="I203">
-        <v>0.06766914327995543</v>
+        <v>0.06493154266775203</v>
       </c>
       <c r="J203">
         <v>0.06766914327995543</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.06766914327995543</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>28.8700008392334</v>
       </c>
       <c r="F204">
-        <v>23.76270866394043</v>
+        <v>23.7627067565918</v>
       </c>
       <c r="G204">
         <v>3780100</v>
@@ -6854,13 +7460,16 @@
         <v>0.01654933897944355</v>
       </c>
       <c r="I204">
-        <v>0.0270366493198142</v>
+        <v>0.06487068122905612</v>
       </c>
       <c r="J204">
         <v>0.0270366493198142</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.0270366493198142</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>28.21999931335449</v>
       </c>
       <c r="F205">
-        <v>23.22770118713379</v>
+        <v>23.22769927978516</v>
       </c>
       <c r="G205">
         <v>5103500</v>
@@ -6886,13 +7495,16 @@
         <v>-0.02251477336279029</v>
       </c>
       <c r="I205">
-        <v>-0.02756723403824612</v>
+        <v>0.0649415513073856</v>
       </c>
       <c r="J205">
         <v>-0.02756723403824612</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>-0.02756723403824612</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>28.51000022888184</v>
       </c>
       <c r="F206">
-        <v>23.46639442443848</v>
+        <v>23.46640014648438</v>
       </c>
       <c r="G206">
         <v>1157500</v>
@@ -6918,13 +7530,16 @@
         <v>0.01027643240905785</v>
       </c>
       <c r="I206">
-        <v>0.005998591227192485</v>
+        <v>0.06486240883583577</v>
       </c>
       <c r="J206">
         <v>0.005998591227192485</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.005998591227192485</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6950,13 +7565,16 @@
         <v>-0.01718694378058172</v>
       </c>
       <c r="I207">
-        <v>-0.01198872162449072</v>
+        <v>0.0646380175162896</v>
       </c>
       <c r="J207">
         <v>-0.01198872162449072</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>-0.01198872162449072</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>27.72999954223633</v>
       </c>
       <c r="F208">
-        <v>22.82438468933105</v>
+        <v>22.82437896728516</v>
       </c>
       <c r="G208">
         <v>1913400</v>
@@ -6982,13 +7600,16 @@
         <v>-0.01034978268342579</v>
       </c>
       <c r="I208">
-        <v>0.09518166968638431</v>
+        <v>0.06418970959235659</v>
       </c>
       <c r="J208">
         <v>0.09518166968638431</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.09518166968638431</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F209">
-        <v>21.77560043334961</v>
+        <v>21.77559471130371</v>
       </c>
       <c r="G209">
         <v>2523700</v>
@@ -7014,13 +7635,16 @@
         <v>-0.05697800035299361</v>
       </c>
       <c r="I209">
-        <v>0.01199688328606041</v>
+        <v>0.06445621315442335</v>
       </c>
       <c r="J209">
         <v>0.01199688328606041</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.01199688328606041</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>27.6299991607666</v>
       </c>
       <c r="F210">
-        <v>23.00802421569824</v>
+        <v>23.00802612304688</v>
       </c>
       <c r="G210">
         <v>1720300</v>
@@ -7046,13 +7670,16 @@
         <v>0.05659654163771299</v>
       </c>
       <c r="I210">
-        <v>0.05096988203023733</v>
+        <v>0.06457493873914481</v>
       </c>
       <c r="J210">
         <v>0.05096988203023733</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.05096988203023733</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>27.38999938964844</v>
       </c>
       <c r="F211">
-        <v>22.80817222595215</v>
+        <v>22.80817031860352</v>
       </c>
       <c r="G211">
         <v>783300</v>
@@ -7078,13 +7705,16 @@
         <v>-0.008686202620626693</v>
       </c>
       <c r="I211">
-        <v>-0.004000022194602271</v>
+        <v>0.06444827201111909</v>
       </c>
       <c r="J211">
         <v>-0.004000022194602271</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>-0.004000022194602271</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>28.30999946594238</v>
       </c>
       <c r="F212">
-        <v>23.57426834106445</v>
+        <v>23.57427406311035</v>
       </c>
       <c r="G212">
         <v>2068900</v>
@@ -7110,13 +7740,16 @@
         <v>0.033588904592734</v>
       </c>
       <c r="I212">
-        <v>-0.006318017080444438</v>
+        <v>0.06448782397533535</v>
       </c>
       <c r="J212">
         <v>-0.006318017080444438</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>-0.006318017080444438</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>29.36000061035156</v>
       </c>
       <c r="F213">
-        <v>24.44863319396973</v>
+        <v>24.44862747192383</v>
       </c>
       <c r="G213">
         <v>1477400</v>
@@ -7142,13 +7775,16 @@
         <v>0.03708940883846923</v>
       </c>
       <c r="I213">
-        <v>0.03053706023947966</v>
+        <v>0.06433235809569184</v>
       </c>
       <c r="J213">
         <v>0.03053706023947966</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.03053706023947966</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>29.09000015258789</v>
       </c>
       <c r="F214">
-        <v>24.22379493713379</v>
+        <v>24.22379112243652</v>
       </c>
       <c r="G214">
         <v>969100</v>
@@ -7174,13 +7810,16 @@
         <v>-0.009196200686333644</v>
       </c>
       <c r="I214">
-        <v>0.03486302102303918</v>
+        <v>0.06428165406455755</v>
       </c>
       <c r="J214">
         <v>0.03486302102303918</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.03486302102303918</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>29.15999984741211</v>
       </c>
       <c r="F215">
-        <v>24.61698722839355</v>
+        <v>24.61697959899902</v>
       </c>
       <c r="G215">
         <v>445600</v>
@@ -7206,13 +7845,16 @@
         <v>0.002406314694295197</v>
       </c>
       <c r="I215">
-        <v>0.02676057179895008</v>
+        <v>0.06423746060633168</v>
       </c>
       <c r="J215">
         <v>0.02676057179895008</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.02676057179895008</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>27.93000030517578</v>
       </c>
       <c r="F216">
-        <v>23.57861518859863</v>
+        <v>23.57861709594727</v>
       </c>
       <c r="G216">
         <v>1149000</v>
@@ -7238,13 +7880,16 @@
         <v>-0.04218105448122933</v>
       </c>
       <c r="I216">
-        <v>-0.03255976815837802</v>
+        <v>0.06440035642466058</v>
       </c>
       <c r="J216">
         <v>-0.03255976815837802</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>-0.03255976815837802</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7270,13 +7915,16 @@
         <v>0.04475474351385378</v>
       </c>
       <c r="I217">
-        <v>0.03401846262154185</v>
+        <v>0.06446653781511437</v>
       </c>
       <c r="J217">
         <v>0.03401846262154185</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.03401846262154185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>29.54999923706055</v>
       </c>
       <c r="F218">
-        <v>24.94622230529785</v>
+        <v>24.94622421264648</v>
       </c>
       <c r="G218">
         <v>863000</v>
@@ -7302,13 +7950,16 @@
         <v>0.01267988101491335</v>
       </c>
       <c r="I218">
-        <v>0.03647839354014271</v>
+        <v>0.06445385206492686</v>
       </c>
       <c r="J218">
         <v>0.03647839354014271</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.03647839354014271</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F219">
-        <v>25.78199195861816</v>
+        <v>25.7819881439209</v>
       </c>
       <c r="G219">
         <v>2022000</v>
@@ -7334,13 +7985,16 @@
         <v>0.03350259573696279</v>
       </c>
       <c r="I219">
-        <v>0.0899357750390557</v>
+        <v>0.0639310049250304</v>
       </c>
       <c r="J219">
         <v>0.0899357750390557</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.0899357750390557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>30.70000076293945</v>
       </c>
       <c r="F220">
-        <v>25.91706085205078</v>
+        <v>25.91705894470215</v>
       </c>
       <c r="G220">
         <v>1805800</v>
@@ -7366,13 +8020,16 @@
         <v>0.005239025625921379</v>
       </c>
       <c r="I220">
-        <v>0.107104265046216</v>
+        <v>0.06392740842992252</v>
       </c>
       <c r="J220">
         <v>0.107104265046216</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.107104265046216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7398,13 +8055,16 @@
         <v>0.04918561185692383</v>
       </c>
       <c r="I221">
-        <v>0.2317399447167938</v>
+        <v>0.06387944184049517</v>
       </c>
       <c r="J221">
         <v>0.2317399447167938</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.2317399447167938</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>32.15999984741211</v>
       </c>
       <c r="F222">
-        <v>27.35178756713867</v>
+        <v>27.3517894744873</v>
       </c>
       <c r="G222">
         <v>1679700</v>
@@ -7430,13 +8090,16 @@
         <v>-0.00155228930399598</v>
       </c>
       <c r="I222">
-        <v>0.1639522556728092</v>
+        <v>0.06388056220671964</v>
       </c>
       <c r="J222">
         <v>0.1639522556728092</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.1639522556728092</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>32.86000061035156</v>
       </c>
       <c r="F223">
-        <v>27.94713592529297</v>
+        <v>27.94713401794434</v>
       </c>
       <c r="G223">
         <v>1103900</v>
@@ -7462,13 +8125,16 @@
         <v>0.02176619298074356</v>
       </c>
       <c r="I223">
-        <v>0.1997079716172032</v>
+        <v>0.06387756410419881</v>
       </c>
       <c r="J223">
         <v>0.1997079716172032</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1997079716172032</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7494,13 +8160,16 @@
         <v>-0.06603773694423953</v>
       </c>
       <c r="I224">
-        <v>0.08406927280159193</v>
+        <v>0.06388006818248844</v>
       </c>
       <c r="J224">
         <v>0.08406927280159193</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.08406927280159193</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>29.92000007629395</v>
       </c>
       <c r="F225">
-        <v>25.44668769836426</v>
+        <v>25.44668960571289</v>
       </c>
       <c r="G225">
         <v>8738400</v>
@@ -7526,13 +8195,16 @@
         <v>-0.02508962021389272</v>
       </c>
       <c r="I225">
-        <v>0.0190735508958042</v>
+        <v>0.06373876811977952</v>
       </c>
       <c r="J225">
         <v>0.0190735508958042</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0.0190735508958042</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>29.94000053405762</v>
       </c>
       <c r="F226">
-        <v>25.46369743347168</v>
+        <v>25.46369934082031</v>
       </c>
       <c r="G226">
         <v>1310400</v>
@@ -7558,13 +8230,16 @@
         <v>0.0006684644957444252</v>
       </c>
       <c r="I226">
-        <v>0.02921967607463594</v>
+        <v>0.0636193556323527</v>
       </c>
       <c r="J226">
         <v>0.02921967607463594</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>0.02921967607463594</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>28.86000061035156</v>
       </c>
       <c r="F227">
-        <v>24.89304161071777</v>
+        <v>24.89304351806641</v>
       </c>
       <c r="G227">
         <v>2154700</v>
@@ -7590,13 +8265,16 @@
         <v>-0.03607214109690893</v>
       </c>
       <c r="I227">
-        <v>-0.01028803973355208</v>
+        <v>0.06373705252247591</v>
       </c>
       <c r="J227">
         <v>-0.01028803973355208</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.01028803973355208</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>26.44000053405762</v>
       </c>
       <c r="F228">
-        <v>22.80568695068359</v>
+        <v>22.8056812286377</v>
       </c>
       <c r="G228">
         <v>3414300</v>
@@ -7622,13 +8300,16 @@
         <v>-0.08385308472328779</v>
       </c>
       <c r="I228">
-        <v>-0.05334764607367537</v>
+        <v>0.06409307080445427</v>
       </c>
       <c r="J228">
         <v>-0.05334764607367537</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.05334764607367537</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7654,13 +8335,16 @@
         <v>0.05975793841875454</v>
       </c>
       <c r="I229">
-        <v>-0.03975325000960861</v>
+        <v>0.06404122277944983</v>
       </c>
       <c r="J229">
         <v>-0.03975325000960861</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.03975325000960861</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F230">
-        <v>23.44396591186523</v>
+        <v>23.4439640045166</v>
       </c>
       <c r="G230">
         <v>1862400</v>
@@ -7686,13 +8370,16 @@
         <v>-0.0299785916796852</v>
       </c>
       <c r="I230">
-        <v>-0.08020301160997656</v>
+        <v>0.06412043184053821</v>
       </c>
       <c r="J230">
         <v>-0.08020301160997656</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.08020301160997656</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7718,13 +8405,16 @@
         <v>0.07137603062087505</v>
       </c>
       <c r="I231">
-        <v>-0.04649639927063587</v>
+        <v>0.0641031470442112</v>
       </c>
       <c r="J231">
         <v>-0.04649639927063587</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.04649639927063587</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7750,13 +8440,16 @@
         <v>-0.04601648743026499</v>
       </c>
       <c r="I232">
-        <v>-0.09511400663608194</v>
+        <v>0.06425399571767187</v>
       </c>
       <c r="J232">
         <v>-0.09511400663608194</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.09511400663608194</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7782,13 +8475,16 @@
         <v>-0.03995682443899884</v>
       </c>
       <c r="I233">
-        <v>-0.171996248545358</v>
+        <v>0.06423770526797257</v>
       </c>
       <c r="J233">
         <v>-0.171996248545358</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.171996248545358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7814,13 +8510,16 @@
         <v>-0.04199478200335394</v>
       </c>
       <c r="I234">
-        <v>-0.2055348458244307</v>
+        <v>0.06419416703477143</v>
       </c>
       <c r="J234">
         <v>-0.2055348458244307</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.2055348458244307</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>24.27000045776367</v>
       </c>
       <c r="F235">
-        <v>21.09494018554688</v>
+        <v>21.09494209289551</v>
       </c>
       <c r="G235">
         <v>4110200</v>
@@ -7846,13 +8545,16 @@
         <v>-0.05009780107704365</v>
       </c>
       <c r="I235">
-        <v>-0.2614120509140182</v>
+        <v>0.06416600048546897</v>
       </c>
       <c r="J235">
         <v>-0.2614120509140182</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.2614120509140182</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>23</v>
       </c>
       <c r="F236">
-        <v>19.99108505249023</v>
+        <v>19.9910888671875</v>
       </c>
       <c r="G236">
         <v>2236700</v>
@@ -7878,13 +8580,16 @@
         <v>-0.05232799480056927</v>
       </c>
       <c r="I236">
-        <v>-0.2505702313534922</v>
+        <v>0.06417416289476613</v>
       </c>
       <c r="J236">
         <v>-0.2505702313534922</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.2505702313534922</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>23.79999923706055</v>
       </c>
       <c r="F237">
-        <v>20.68642616271973</v>
+        <v>20.68642997741699</v>
       </c>
       <c r="G237">
         <v>3149800</v>
@@ -7910,13 +8615,16 @@
         <v>0.03478257552437158</v>
       </c>
       <c r="I237">
-        <v>-0.2045454820731222</v>
+        <v>0.06386248037652395</v>
       </c>
       <c r="J237">
         <v>-0.2045454820731222</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.2045454820731222</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>23.27000045776367</v>
       </c>
       <c r="F238">
-        <v>20.22576332092285</v>
+        <v>20.22576522827148</v>
       </c>
       <c r="G238">
         <v>1439800</v>
@@ -7942,13 +8650,16 @@
         <v>-0.02226885698683467</v>
       </c>
       <c r="I238">
-        <v>-0.2227788896899526</v>
+        <v>0.06374522675679838</v>
       </c>
       <c r="J238">
         <v>-0.2227788896899526</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.2227788896899526</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>21.5</v>
       </c>
       <c r="F239">
-        <v>18.94127082824707</v>
+        <v>18.9412727355957</v>
       </c>
       <c r="G239">
         <v>2122100</v>
@@ -7974,13 +8685,16 @@
         <v>-0.07606361937879291</v>
       </c>
       <c r="I239">
-        <v>-0.2550242707795253</v>
+        <v>0.06405537557578876</v>
       </c>
       <c r="J239">
         <v>-0.2550242707795253</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.2550242707795253</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -8006,13 +8720,16 @@
         <v>-0.02744186756222744</v>
       </c>
       <c r="I240">
-        <v>-0.209152820535017</v>
+        <v>0.06358909319847596</v>
       </c>
       <c r="J240">
         <v>-0.209152820535017</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.209152820535017</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>21.6299991607666</v>
       </c>
       <c r="F241">
-        <v>19.05579948425293</v>
+        <v>19.0557975769043</v>
       </c>
       <c r="G241">
         <v>2672300</v>
@@ -8038,13 +8755,16 @@
         <v>0.03443325292245758</v>
       </c>
       <c r="I241">
-        <v>-0.2280514344255321</v>
+        <v>0.06362472479359357</v>
       </c>
       <c r="J241">
         <v>-0.2280514344255321</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.2280514344255321</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>23.70999908447266</v>
       </c>
       <c r="F242">
-        <v>20.88825798034668</v>
+        <v>20.88825988769531</v>
       </c>
       <c r="G242">
         <v>1627800</v>
@@ -8070,13 +8790,16 @@
         <v>0.09616273714327495</v>
       </c>
       <c r="I242">
-        <v>-0.1276674459802102</v>
+        <v>0.06420301370456762</v>
       </c>
       <c r="J242">
         <v>-0.1276674459802102</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.1276674459802102</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>25.39999961853027</v>
       </c>
       <c r="F243">
-        <v>22.37713050842285</v>
+        <v>22.37712860107422</v>
       </c>
       <c r="G243">
         <v>2890400</v>
@@ -8102,13 +8825,16 @@
         <v>0.07127796707357836</v>
       </c>
       <c r="I243">
-        <v>-0.127747290985348</v>
+        <v>0.06435248122367519</v>
       </c>
       <c r="J243">
         <v>-0.127747290985348</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.127747290985348</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>24.47999954223633</v>
       </c>
       <c r="F244">
-        <v>21.56661796569824</v>
+        <v>21.56661605834961</v>
       </c>
       <c r="G244">
         <v>8511300</v>
@@ -8134,13 +8860,16 @@
         <v>-0.03622047598862044</v>
       </c>
       <c r="I244">
-        <v>-0.1187905350195174</v>
+        <v>0.06440895478269389</v>
       </c>
       <c r="J244">
         <v>-0.1187905350195174</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.1187905350195174</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8166,13 +8895,16 @@
         <v>0.001225518268239689</v>
       </c>
       <c r="I245">
-        <v>-0.0809898703124512</v>
+        <v>0.06436857600698789</v>
       </c>
       <c r="J245">
         <v>-0.0809898703124512</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.0809898703124512</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>25.23999977111816</v>
       </c>
       <c r="F246">
-        <v>22.41230773925781</v>
+        <v>22.41230583190918</v>
       </c>
       <c r="G246">
         <v>809200</v>
@@ -8198,13 +8930,16 @@
         <v>0.02978374277516815</v>
       </c>
       <c r="I246">
-        <v>-0.01213305186689495</v>
+        <v>0.06441711758539462</v>
       </c>
       <c r="J246">
         <v>-0.01213305186689495</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.01213305186689495</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>25.30999946594238</v>
       </c>
       <c r="F247">
-        <v>22.47446250915527</v>
+        <v>22.47446441650391</v>
       </c>
       <c r="G247">
         <v>2319500</v>
@@ -8230,13 +8965,16 @@
         <v>0.002773363528486117</v>
       </c>
       <c r="I247">
-        <v>0.04285121502113642</v>
+        <v>0.06432113095058406</v>
       </c>
       <c r="J247">
         <v>0.04285121502113642</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.04285121502113642</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>25.69000053405762</v>
       </c>
       <c r="F248">
-        <v>22.81189346313477</v>
+        <v>22.8118953704834</v>
       </c>
       <c r="G248">
         <v>1578900</v>
@@ -8262,13 +9000,16 @@
         <v>0.01501387104438989</v>
       </c>
       <c r="I248">
-        <v>0.1169565449590269</v>
+        <v>0.06426120516238289</v>
       </c>
       <c r="J248">
         <v>0.1169565449590269</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.1169565449590269</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>25.35000038146973</v>
       </c>
       <c r="F249">
-        <v>22.50998115539551</v>
+        <v>22.50998497009277</v>
       </c>
       <c r="G249">
         <v>1478700</v>
@@ -8294,13 +9035,16 @@
         <v>-0.01323472734604059</v>
       </c>
       <c r="I249">
-        <v>0.06512610059228785</v>
+        <v>0.0641441540236648</v>
       </c>
       <c r="J249">
         <v>0.06512610059228785</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.06512610059228785</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8317,7 +9061,7 @@
         <v>26.01000022888184</v>
       </c>
       <c r="F250">
-        <v>23.09604263305664</v>
+        <v>23.09604454040527</v>
       </c>
       <c r="G250">
         <v>12249300</v>
@@ -8326,13 +9070,16 @@
         <v>0.02603549654754844</v>
       </c>
       <c r="I250">
-        <v>0.1177481614618536</v>
+        <v>0.06414714382236802</v>
       </c>
       <c r="J250">
         <v>0.1177481614618536</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.1177481614618536</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F251">
-        <v>23.45241355895996</v>
+        <v>23.45241165161133</v>
       </c>
       <c r="G251">
         <v>5172400</v>
@@ -8358,13 +9105,16 @@
         <v>0.00538252166153308</v>
       </c>
       <c r="I251">
-        <v>0.2162790520246638</v>
+        <v>0.06412230486474406</v>
       </c>
       <c r="J251">
         <v>0.2162790520246638</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.2162790520246638</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F252">
-        <v>24.37615966796875</v>
+        <v>24.37616157531738</v>
       </c>
       <c r="G252">
         <v>1563000</v>
@@ -8390,13 +9140,16 @@
         <v>0.03938817214802692</v>
       </c>
       <c r="I252">
-        <v>0.2998565520573004</v>
+        <v>0.06421114232673628</v>
       </c>
       <c r="J252">
         <v>0.2998565520573004</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.2998565520573004</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8422,13 +9175,16 @@
         <v>-0.01802795311318872</v>
       </c>
       <c r="I253">
-        <v>0.2339344230058529</v>
+        <v>0.06423818237673704</v>
       </c>
       <c r="J253">
         <v>0.2339344230058529</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.2339344230058529</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F254">
-        <v>24.10710716247559</v>
+        <v>24.10710334777832</v>
       </c>
       <c r="G254">
         <v>1948400</v>
@@ -8454,13 +9210,16 @@
         <v>0.007118719479474622</v>
       </c>
       <c r="I254">
-        <v>0.1336988696203676</v>
+        <v>0.06420352482598954</v>
       </c>
       <c r="J254">
         <v>0.1336988696203676</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1336988696203676</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F255">
-        <v>23.55106353759766</v>
+        <v>23.55106163024902</v>
       </c>
       <c r="G255">
         <v>1927400</v>
@@ -8486,13 +9245,16 @@
         <v>-0.02306543717418341</v>
       </c>
       <c r="I255">
-        <v>0.03385829225462511</v>
+        <v>0.06401477108915815</v>
       </c>
       <c r="J255">
         <v>0.03385829225462511</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.03385829225462511</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8518,13 +9280,16 @@
         <v>-0.003808087608458632</v>
       </c>
       <c r="I256">
-        <v>0.06862746473002201</v>
+        <v>0.06355788608632876</v>
       </c>
       <c r="J256">
         <v>0.06862746473002201</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.06862746473002201</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>26.76000022888184</v>
       </c>
       <c r="F257">
-        <v>24.19482421875</v>
+        <v>24.19482612609863</v>
       </c>
       <c r="G257">
         <v>2408400</v>
@@ -8550,13 +9315,16 @@
         <v>0.0229357945324713</v>
       </c>
       <c r="I257">
-        <v>0.09179926474862565</v>
+        <v>0.06358433235204591</v>
       </c>
       <c r="J257">
         <v>0.09179926474862565</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.09179926474862565</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8582,13 +9350,16 @@
         <v>0.04260087368826126</v>
       </c>
       <c r="I258">
-        <v>0.1053882674934061</v>
+        <v>0.0636967553882074</v>
       </c>
       <c r="J258">
         <v>0.1053882674934061</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.1053882674934061</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>27.8700008392334</v>
       </c>
       <c r="F259">
-        <v>25.19842147827148</v>
+        <v>25.19842338562012</v>
       </c>
       <c r="G259">
         <v>2962600</v>
@@ -8614,13 +9385,16 @@
         <v>-0.001075225079105402</v>
       </c>
       <c r="I259">
-        <v>0.10114584857008</v>
+        <v>0.06369718549415121</v>
       </c>
       <c r="J259">
         <v>0.10114584857008</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.10114584857008</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8646,13 +9420,16 @@
         <v>0.03839252467183107</v>
       </c>
       <c r="I260">
-        <v>0.1265083663852566</v>
+        <v>0.06321081801539842</v>
       </c>
       <c r="J260">
         <v>0.1265083663852566</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.1265083663852566</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8678,13 +9455,16 @@
         <v>-0.005183124248866133</v>
       </c>
       <c r="I261">
-        <v>0.135700216263988</v>
+        <v>0.06252041875792758</v>
       </c>
       <c r="J261">
         <v>0.135700216263988</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.135700216263988</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8710,13 +9490,16 @@
         <v>0.005210128994798779</v>
       </c>
       <c r="I262">
-        <v>0.1126489919028248</v>
+        <v>0.06160795307176196</v>
       </c>
       <c r="J262">
         <v>0.1126489919028248</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.1126489919028248</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8742,13 +9525,16 @@
         <v>0.02418793513037554</v>
       </c>
       <c r="I263">
-        <v>0.133460796253515</v>
+        <v>0.06164203981036318</v>
       </c>
       <c r="J263">
         <v>0.133460796253515</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.133460796253515</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="F264">
-        <v>27.36163520812988</v>
+        <v>27.36163330078125</v>
       </c>
       <c r="G264">
         <v>2980000</v>
@@ -8774,13 +9560,16 @@
         <v>0.008097158436581653</v>
       </c>
       <c r="I264">
-        <v>0.09933770512418527</v>
+        <v>0.06140872215603867</v>
       </c>
       <c r="J264">
         <v>0.09933770512418527</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.09933770512418527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8806,13 +9595,16 @@
         <v>-0.06994639571421046</v>
       </c>
       <c r="I265">
-        <v>0.04121395127235306</v>
+        <v>0.06154217439202726</v>
       </c>
       <c r="J265">
         <v>0.04121395127235306</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.04121395127235306</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8838,13 +9630,16 @@
         <v>-0.008276410291748193</v>
       </c>
       <c r="I266">
-        <v>0.02529763119071426</v>
+        <v>0.06134826838816972</v>
       </c>
       <c r="J266">
         <v>0.02529763119071426</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.02529763119071426</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8870,13 +9665,16 @@
         <v>0.02068213736827551</v>
       </c>
       <c r="I267">
-        <v>0.07121092595528866</v>
+        <v>0.06103844211136308</v>
       </c>
       <c r="J267">
         <v>0.07121092595528866</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.07121092595528866</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>28.73999977111816</v>
       </c>
       <c r="F268">
-        <v>26.31771278381348</v>
+        <v>26.31771469116211</v>
       </c>
       <c r="G268">
         <v>4275500</v>
@@ -8902,13 +9700,16 @@
         <v>0.02168505611625982</v>
       </c>
       <c r="I268">
-        <v>0.09862385086983405</v>
+        <v>0.06064838299193465</v>
       </c>
       <c r="J268">
         <v>0.09862385086983405</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.09862385086983405</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>28.51000022888184</v>
       </c>
       <c r="F269">
-        <v>26.31160354614258</v>
+        <v>26.31160545349121</v>
       </c>
       <c r="G269">
         <v>2690300</v>
@@ -8934,13 +9735,16 @@
         <v>-0.008002767712874559</v>
       </c>
       <c r="I269">
-        <v>0.06539611304305004</v>
+        <v>0.06045649633332096</v>
       </c>
       <c r="J269">
         <v>0.06539611304305004</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.06539611304305004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>29.20999908447266</v>
       </c>
       <c r="F270">
-        <v>26.95762825012207</v>
+        <v>26.95762252807617</v>
       </c>
       <c r="G270">
         <v>5163200</v>
@@ -8966,13 +9770,16 @@
         <v>0.02455274815752873</v>
       </c>
       <c r="I270">
-        <v>0.04695338651805292</v>
+        <v>0.06028083486412063</v>
       </c>
       <c r="J270">
         <v>0.04695338651805292</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.04695338651805292</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>28.79999923706055</v>
       </c>
       <c r="F271">
-        <v>26.57924270629883</v>
+        <v>26.57924461364746</v>
       </c>
       <c r="G271">
         <v>4120300</v>
@@ -8998,13 +9805,16 @@
         <v>-0.01403628415825786</v>
       </c>
       <c r="I271">
-        <v>0.03336915571663579</v>
+        <v>0.06022467608998634</v>
       </c>
       <c r="J271">
         <v>0.03336915571663579</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>0.03336915571663579</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>28.78000068664551</v>
       </c>
       <c r="F272">
-        <v>26.5607852935791</v>
+        <v>26.56078338623047</v>
       </c>
       <c r="G272">
         <v>3446100</v>
@@ -9030,13 +9840,16 @@
         <v>-0.0006943941300284751</v>
       </c>
       <c r="I272">
-        <v>-0.005528674653057286</v>
+        <v>0.05894121960028577</v>
       </c>
       <c r="J272">
         <v>-0.005528674653057286</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.005528674653057286</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>26.51000022888184</v>
       </c>
       <c r="F273">
-        <v>24.46582221984863</v>
+        <v>24.46582412719727</v>
       </c>
       <c r="G273">
         <v>7104900</v>
@@ -9062,13 +9875,16 @@
         <v>-0.07887423223089074</v>
       </c>
       <c r="I273">
-        <v>-0.07919418597224959</v>
+        <v>0.05380225168565014</v>
       </c>
       <c r="J273">
         <v>-0.07919418597224959</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.07919418597224959</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>26.63999938964844</v>
       </c>
       <c r="F274">
-        <v>24.58580017089844</v>
+        <v>24.5857982635498</v>
       </c>
       <c r="G274">
         <v>2262300</v>
@@ -9094,13 +9910,16 @@
         <v>0.004903778183485974</v>
       </c>
       <c r="I274">
-        <v>-0.07947481347494989</v>
+        <v>0.05280450247798409</v>
       </c>
       <c r="J274">
         <v>-0.07947481347494989</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.07947481347494989</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>23.95999908447266</v>
       </c>
       <c r="F275">
-        <v>22.48233413696289</v>
+        <v>22.48233604431152</v>
       </c>
       <c r="G275">
         <v>3231800</v>
@@ -9126,13 +9945,16 @@
         <v>-0.1006006143610182</v>
       </c>
       <c r="I275">
-        <v>-0.1916329427172485</v>
+        <v>0.05366148536910207</v>
       </c>
       <c r="J275">
         <v>-0.1916329427172485</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1916329427172485</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>27.04999923706055</v>
       </c>
       <c r="F276">
-        <v>25.38176918029785</v>
+        <v>25.38176727294922</v>
       </c>
       <c r="G276">
         <v>2551800</v>
@@ -9158,13 +9980,16 @@
         <v>0.1289649528655605</v>
       </c>
       <c r="I276">
-        <v>-0.09471218216839628</v>
+        <v>0.05468897481257359</v>
       </c>
       <c r="J276">
         <v>-0.09471218216839628</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.09471218216839628</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9190,13 +10015,16 @@
         <v>0.02957490450916977</v>
       </c>
       <c r="I277">
-        <v>0.002159030729245393</v>
+        <v>0.05392043072975942</v>
       </c>
       <c r="J277">
         <v>0.002159030729245393</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>0.002159030729245393</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9222,13 +10050,16 @@
         <v>-0.007540430482759208</v>
       </c>
       <c r="I278">
-        <v>0.002902754907702976</v>
+        <v>0.05337360677644395</v>
       </c>
       <c r="J278">
         <v>0.002902754907702976</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>0.002902754907702976</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>28.54999923706055</v>
       </c>
       <c r="F279">
-        <v>26.78926086425781</v>
+        <v>26.78925895690918</v>
       </c>
       <c r="G279">
         <v>2344700</v>
@@ -9254,13 +10085,16 @@
         <v>0.03292329477231881</v>
       </c>
       <c r="I279">
-        <v>0.01493068214803661</v>
+        <v>0.05201894045692545</v>
       </c>
       <c r="J279">
         <v>0.01493068214803661</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>0.01493068214803661</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9286,13 +10120,16 @@
         <v>-0.04273202612807148</v>
       </c>
       <c r="I280">
-        <v>-0.04906053787895526</v>
+        <v>0.04778596442581245</v>
       </c>
       <c r="J280">
         <v>-0.04906053787895526</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.04906053787895526</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9318,13 +10155,16 @@
         <v>0.04720091178662589</v>
       </c>
       <c r="I281">
-        <v>0.003858316712327836</v>
+        <v>0.04745157673289307</v>
       </c>
       <c r="J281">
         <v>0.003858316712327836</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.003858316712327836</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>28.38999938964844</v>
       </c>
       <c r="F282">
-        <v>26.8818531036377</v>
+        <v>26.88185119628906</v>
       </c>
       <c r="G282">
         <v>2830300</v>
@@ -9350,13 +10190,16 @@
         <v>-0.008036388638733571</v>
       </c>
       <c r="I282">
-        <v>-0.02807256831651572</v>
+        <v>0.04601638963274537</v>
       </c>
       <c r="J282">
         <v>-0.02807256831651572</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.02807256831651572</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>28.19000053405762</v>
       </c>
       <c r="F283">
-        <v>26.69247436523438</v>
+        <v>26.69247627258301</v>
       </c>
       <c r="G283">
         <v>2160700</v>
@@ -9382,13 +10225,16 @@
         <v>-0.007044693902450216</v>
       </c>
       <c r="I283">
-        <v>-0.02118051108202701</v>
+        <v>0.04598883284616473</v>
       </c>
       <c r="J283">
         <v>-0.02118051108202701</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.02118051108202701</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9414,13 +10260,16 @@
         <v>0.02518620329981447</v>
       </c>
       <c r="I284">
-        <v>0.004169524983383521</v>
+        <v>0.04559749951917345</v>
       </c>
       <c r="J284">
         <v>0.004169524983383521</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>0.004169524983383521</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9446,13 +10295,16 @@
         <v>-0.004152212230751129</v>
       </c>
       <c r="I285">
-        <v>0.08562808140946654</v>
+        <v>0.04519443923622263</v>
       </c>
       <c r="J285">
         <v>0.08562808140946654</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.08562808140946654</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9478,13 +10330,16 @@
         <v>0.02953434516474873</v>
       </c>
       <c r="I286">
-        <v>0.1122372312170545</v>
+        <v>0.04460291671011276</v>
       </c>
       <c r="J286">
         <v>0.1122372312170545</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1122372312170545</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9510,13 +10365,16 @@
         <v>0.008774898287074784</v>
       </c>
       <c r="I287">
-        <v>0.2474958485711602</v>
+        <v>0.04458833120409251</v>
       </c>
       <c r="J287">
         <v>0.2474958485711602</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.2474958485711602</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9542,13 +10400,16 @@
         <v>-0.007360298355532313</v>
       </c>
       <c r="I288">
-        <v>0.09685770473678246</v>
+        <v>0.04407680532789796</v>
       </c>
       <c r="J288">
         <v>0.09685770473678246</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.09685770473678246</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>27.59000015258789</v>
       </c>
       <c r="F289">
-        <v>26.4758129119873</v>
+        <v>26.47581481933594</v>
       </c>
       <c r="G289">
         <v>9644000</v>
@@ -9574,13 +10435,16 @@
         <v>-0.07010447989071478</v>
       </c>
       <c r="I289">
-        <v>-0.00933573520001918</v>
+        <v>0.04425087688715141</v>
       </c>
       <c r="J289">
         <v>-0.00933573520001918</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.00933573520001918</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>21.85000038146973</v>
       </c>
       <c r="F290">
-        <v>20.96761512756348</v>
+        <v>20.96761703491211</v>
       </c>
       <c r="G290">
         <v>2981300</v>
@@ -9606,13 +10470,16 @@
         <v>-0.2080463841744402</v>
       </c>
       <c r="I290">
-        <v>-0.2094789846611627</v>
+        <v>0.04767912945985664</v>
       </c>
       <c r="J290">
         <v>-0.2094789846611627</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2094789846611627</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9638,13 +10505,16 @@
         <v>0.1112128266705472</v>
       </c>
       <c r="I291">
-        <v>-0.1495621248519049</v>
+        <v>0.04875345739621826</v>
       </c>
       <c r="J291">
         <v>-0.1495621248519049</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.1495621248519049</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9661,7 +10531,7 @@
         <v>25.13999938964844</v>
       </c>
       <c r="F292">
-        <v>24.12475395202637</v>
+        <v>24.12475204467773</v>
       </c>
       <c r="G292">
         <v>3296500</v>
@@ -9670,13 +10540,16 @@
         <v>0.03542004442676761</v>
       </c>
       <c r="I292">
-        <v>-0.08013174314567084</v>
+        <v>0.04839371459444322</v>
       </c>
       <c r="J292">
         <v>-0.08013174314567084</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.08013174314567084</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>25.8799991607666</v>
       </c>
       <c r="F293">
-        <v>25.0869083404541</v>
+        <v>25.08691024780273</v>
       </c>
       <c r="G293">
         <v>3650000</v>
@@ -9702,13 +10575,16 @@
         <v>0.02943515469705482</v>
       </c>
       <c r="I293">
-        <v>-0.09573730251994605</v>
+        <v>0.04823810513760763</v>
       </c>
       <c r="J293">
         <v>-0.09573730251994605</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.09573730251994605</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.05525503676768362</v>
       </c>
       <c r="I294">
-        <v>-0.03804156206145759</v>
+        <v>0.04805670270070781</v>
       </c>
       <c r="J294">
         <v>-0.03804156206145759</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.03804156206145759</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>28.70999908447266</v>
       </c>
       <c r="F295">
-        <v>27.83018493652344</v>
+        <v>27.8301830291748</v>
       </c>
       <c r="G295">
         <v>2100000</v>
@@ -9766,13 +10645,16 @@
         <v>0.05126326056052033</v>
       </c>
       <c r="I295">
-        <v>0.01844620576671518</v>
+        <v>0.04822634969311139</v>
       </c>
       <c r="J295">
         <v>0.01844620576671518</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>0.01844620576671518</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.04528036497791565</v>
       </c>
       <c r="I296">
-        <v>-0.05155708618635402</v>
+        <v>0.04795869223535631</v>
       </c>
       <c r="J296">
         <v>-0.05155708618635402</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.05155708618635402</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.03429407294018527</v>
       </c>
       <c r="I297">
-        <v>-0.08026411807428835</v>
+        <v>0.04798165129744569</v>
       </c>
       <c r="J297">
         <v>-0.08026411807428835</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.08026411807428835</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9862,13 +10750,16 @@
         <v>0.143936587537757</v>
       </c>
       <c r="I298">
-        <v>0.02193727790379363</v>
+        <v>0.04972438277679872</v>
       </c>
       <c r="J298">
         <v>0.02193727790379363</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.02193727790379363</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.01849403742548006</v>
       </c>
       <c r="I299">
-        <v>0.03178323125923055</v>
+        <v>0.04948760629345132</v>
       </c>
       <c r="J299">
         <v>0.03178323125923055</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.03178323125923055</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>-0.007782093707221494</v>
       </c>
       <c r="I300">
-        <v>0.03134480292498698</v>
+        <v>0.04948859908468143</v>
       </c>
       <c r="J300">
         <v>0.03134480292498698</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.03134480292498698</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9949,7 +10846,7 @@
         <v>32.16999816894531</v>
       </c>
       <c r="F301">
-        <v>31.57088088989258</v>
+        <v>31.57087898254395</v>
       </c>
       <c r="G301">
         <v>5118400</v>
@@ -9958,13 +10855,16 @@
         <v>0.05130711659815268</v>
       </c>
       <c r="I301">
-        <v>0.1660021018857381</v>
+        <v>0.04922419506427278</v>
       </c>
       <c r="J301">
         <v>0.1660021018857381</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.1660021018857381</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.05843957647253006</v>
       </c>
       <c r="I302">
-        <v>0.5583523406222566</v>
+        <v>0.04950332910851455</v>
       </c>
       <c r="J302">
         <v>0.5583523406222566</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.5583523406222566</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.04581501933172105</v>
       </c>
       <c r="I303">
-        <v>0.4666391928867524</v>
+        <v>0.0496693853071279</v>
       </c>
       <c r="J303">
         <v>0.4666391928867524</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.4666391928867524</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>37.86999893188477</v>
       </c>
       <c r="F304">
-        <v>37.16472625732422</v>
+        <v>37.16472244262695</v>
       </c>
       <c r="G304">
         <v>1867400</v>
@@ -10054,13 +10960,16 @@
         <v>0.06346527050820217</v>
       </c>
       <c r="I304">
-        <v>0.5063643536713047</v>
+        <v>0.04993114457849968</v>
       </c>
       <c r="J304">
         <v>0.5063643536713047</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.5063643536713047</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.01584363588708537</v>
       </c>
       <c r="I305">
-        <v>0.4401082560413685</v>
+        <v>0.04982537445724502</v>
       </c>
       <c r="J305">
         <v>0.4401082560413685</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.4401082560413685</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.001609910720527408</v>
       </c>
       <c r="I306">
-        <v>0.3668986657289393</v>
+        <v>0.04976944380341782</v>
       </c>
       <c r="J306">
         <v>0.3668986657289393</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.3668986657289393</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.000267836084724804</v>
       </c>
       <c r="I307">
-        <v>0.3005921749674536</v>
+        <v>0.04965496226716308</v>
       </c>
       <c r="J307">
         <v>0.3005921749674536</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.3005921749674536</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.02785219366034908</v>
       </c>
       <c r="I308">
-        <v>0.3243341641422073</v>
+        <v>0.04777869420002694</v>
       </c>
       <c r="J308">
         <v>0.3243341641422073</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.3243341641422073</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.0793388740673826</v>
       </c>
       <c r="I309">
-        <v>0.4801662758415302</v>
+        <v>0.0473265479976546</v>
       </c>
       <c r="J309">
         <v>0.4801662758415302</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.4801662758415302</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.04594178721389042</v>
       </c>
       <c r="I310">
-        <v>0.2344782107155323</v>
+        <v>0.04745834354853744</v>
       </c>
       <c r="J310">
         <v>0.2344782107155323</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.2344782107155323</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>38.18999862670898</v>
+        <v>38.27000045776367</v>
       </c>
       <c r="C311">
-        <v>38.38999938964844</v>
+        <v>38.4900016784668</v>
       </c>
       <c r="D311">
-        <v>38.2400016784668</v>
+        <v>38.25</v>
       </c>
       <c r="E311">
-        <v>38.33499908447266</v>
+        <v>38.43000030517578</v>
       </c>
       <c r="F311">
-        <v>38.33499908447266</v>
+        <v>38.43000030517578</v>
       </c>
       <c r="G311">
-        <v>2144892</v>
+        <v>2307700</v>
       </c>
       <c r="H311">
-        <v>0.0255483678188555</v>
+        <v>0.02808986642743005</v>
       </c>
       <c r="I311">
-        <v>0.2430284985344215</v>
+        <v>0.04739967583496287</v>
       </c>
       <c r="J311">
-        <v>0.2430284985344215</v>
+        <v>0.2461089531463894</v>
+      </c>
+      <c r="K311">
+        <v>0.2461089531463894</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>38.5</v>
+      </c>
+      <c r="C312">
+        <v>38.63999938964844</v>
+      </c>
+      <c r="D312">
+        <v>38.31000137329102</v>
+      </c>
+      <c r="E312">
+        <v>38.52500152587891</v>
+      </c>
+      <c r="F312">
+        <v>38.52500152587891</v>
+      </c>
+      <c r="G312">
+        <v>3510538</v>
+      </c>
+      <c r="H312">
+        <v>0.002472058806888278</v>
+      </c>
+      <c r="I312">
+        <v>0.04715223761044221</v>
+      </c>
+      <c r="J312">
+        <v>0.2589869622749508</v>
+      </c>
+      <c r="K312">
+        <v>0.2589869622749508</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWC.xlsx
+++ b/etf_dfs/EWC.xlsx
@@ -508,7 +508,7 @@
         <v>10.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>4.808239936828613</v>
+        <v>4.808238983154297</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -535,7 +535,7 @@
         <v>10.8125</v>
       </c>
       <c r="F3" t="n">
-        <v>4.980991363525391</v>
+        <v>4.980991840362549</v>
       </c>
       <c r="G3" t="n">
         <v>4800</v>
@@ -564,7 +564,7 @@
         <v>10.75</v>
       </c>
       <c r="F4" t="n">
-        <v>4.952199459075928</v>
+        <v>4.952198028564453</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>10.5625</v>
       </c>
       <c r="F5" t="n">
-        <v>4.865822315216064</v>
+        <v>4.865823268890381</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>10.375</v>
       </c>
       <c r="F6" t="n">
-        <v>4.779446125030518</v>
+        <v>4.77944803237915</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>10.625</v>
       </c>
       <c r="F7" t="n">
-        <v>4.913354396820068</v>
+        <v>4.913354873657227</v>
       </c>
       <c r="G7" t="n">
         <v>14700</v>
@@ -688,7 +688,7 @@
         <v>11.0625</v>
       </c>
       <c r="F8" t="n">
-        <v>5.115667819976807</v>
+        <v>5.115668296813965</v>
       </c>
       <c r="G8" t="n">
         <v>3100</v>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>5.54919958114624</v>
+        <v>5.549200534820557</v>
       </c>
       <c r="G9" t="n">
         <v>4100</v>
@@ -750,7 +750,7 @@
         <v>12.6875</v>
       </c>
       <c r="F10" t="n">
-        <v>5.867121696472168</v>
+        <v>5.867125034332275</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>12.25</v>
       </c>
       <c r="F11" t="n">
-        <v>5.675573825836182</v>
+        <v>5.67557430267334</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
@@ -812,7 +812,7 @@
         <v>12.875</v>
       </c>
       <c r="F12" t="n">
-        <v>5.965145111083984</v>
+        <v>5.965143203735352</v>
       </c>
       <c r="G12" t="n">
         <v>25900</v>
@@ -843,7 +843,7 @@
         <v>12.75</v>
       </c>
       <c r="F13" t="n">
-        <v>5.907229900360107</v>
+        <v>5.907230854034424</v>
       </c>
       <c r="G13" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>5.559746265411377</v>
+        <v>5.559745311737061</v>
       </c>
       <c r="G14" t="n">
         <v>3900</v>
@@ -944,7 +944,7 @@
         <v>13.25</v>
       </c>
       <c r="F16" t="n">
-        <v>6.138885974884033</v>
+        <v>6.138887882232666</v>
       </c>
       <c r="G16" t="n">
         <v>14000</v>
@@ -979,7 +979,7 @@
         <v>13.375</v>
       </c>
       <c r="F17" t="n">
-        <v>6.196799755096436</v>
+        <v>6.196801662445068</v>
       </c>
       <c r="G17" t="n">
         <v>2300</v>
@@ -1014,7 +1014,7 @@
         <v>14.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6.71802806854248</v>
+        <v>6.718028545379639</v>
       </c>
       <c r="G18" t="n">
         <v>600</v>
@@ -1049,7 +1049,7 @@
         <v>13.4375</v>
       </c>
       <c r="F19" t="n">
-        <v>6.302874088287354</v>
+        <v>6.302875518798828</v>
       </c>
       <c r="G19" t="n">
         <v>1300</v>
@@ -1084,7 +1084,7 @@
         <v>14.1875</v>
       </c>
       <c r="F20" t="n">
-        <v>6.654665470123291</v>
+        <v>6.654664039611816</v>
       </c>
       <c r="G20" t="n">
         <v>3100</v>
@@ -1119,7 +1119,7 @@
         <v>13.375</v>
       </c>
       <c r="F21" t="n">
-        <v>6.2735595703125</v>
+        <v>6.273559093475342</v>
       </c>
       <c r="G21" t="n">
         <v>14900</v>
@@ -1154,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>6.097664833068848</v>
+        <v>6.097665309906006</v>
       </c>
       <c r="G22" t="n">
         <v>2500</v>
@@ -1189,7 +1189,7 @@
         <v>13.3125</v>
       </c>
       <c r="F23" t="n">
-        <v>6.277565002441406</v>
+        <v>6.27756404876709</v>
       </c>
       <c r="G23" t="n">
         <v>4000</v>
@@ -1224,7 +1224,7 @@
         <v>13.1875</v>
       </c>
       <c r="F24" t="n">
-        <v>6.218621730804443</v>
+        <v>6.21862268447876</v>
       </c>
       <c r="G24" t="n">
         <v>7600</v>
@@ -1259,7 +1259,7 @@
         <v>14.4375</v>
       </c>
       <c r="F25" t="n">
-        <v>6.808064460754395</v>
+        <v>6.808063983917236</v>
       </c>
       <c r="G25" t="n">
         <v>800</v>
@@ -1294,7 +1294,7 @@
         <v>15.25</v>
       </c>
       <c r="F26" t="n">
-        <v>7.191200256347656</v>
+        <v>7.191201210021973</v>
       </c>
       <c r="G26" t="n">
         <v>2400</v>
@@ -1329,7 +1329,7 @@
         <v>15.25</v>
       </c>
       <c r="F27" t="n">
-        <v>7.191200256347656</v>
+        <v>7.191201210021973</v>
       </c>
       <c r="G27" t="n">
         <v>500</v>
@@ -1364,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="n">
-        <v>7.073311805725098</v>
+        <v>7.07331371307373</v>
       </c>
       <c r="G28" t="n">
         <v>24700</v>
@@ -1399,7 +1399,7 @@
         <v>14.6875</v>
       </c>
       <c r="F29" t="n">
-        <v>6.925950527191162</v>
+        <v>6.925951480865479</v>
       </c>
       <c r="G29" t="n">
         <v>1000</v>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>4.985048770904541</v>
+        <v>4.985049724578857</v>
       </c>
       <c r="G31" t="n">
         <v>4300</v>
@@ -1504,7 +1504,7 @@
         <v>10.4375</v>
       </c>
       <c r="F32" t="n">
-        <v>5.203145503997803</v>
+        <v>5.203145027160645</v>
       </c>
       <c r="G32" t="n">
         <v>600</v>
@@ -1539,7 +1539,7 @@
         <v>11.375</v>
       </c>
       <c r="F33" t="n">
-        <v>5.670492172241211</v>
+        <v>5.670492649078369</v>
       </c>
       <c r="G33" t="n">
         <v>24500</v>
@@ -1574,7 +1574,7 @@
         <v>11.75</v>
       </c>
       <c r="F34" t="n">
-        <v>5.857434272766113</v>
+        <v>5.857433795928955</v>
       </c>
       <c r="G34" t="n">
         <v>6200</v>
@@ -1609,7 +1609,7 @@
         <v>11.5625</v>
       </c>
       <c r="F35" t="n">
-        <v>5.790925025939941</v>
+        <v>5.790926933288574</v>
       </c>
       <c r="G35" t="n">
         <v>4200</v>
@@ -1644,7 +1644,7 @@
         <v>12.5625</v>
       </c>
       <c r="F36" t="n">
-        <v>6.291762351989746</v>
+        <v>6.291763305664062</v>
       </c>
       <c r="G36" t="n">
         <v>10100</v>
@@ -1679,7 +1679,7 @@
         <v>11.9375</v>
       </c>
       <c r="F37" t="n">
-        <v>5.978740215301514</v>
+        <v>5.978741645812988</v>
       </c>
       <c r="G37" t="n">
         <v>4000</v>
@@ -1714,7 +1714,7 @@
         <v>12.4375</v>
       </c>
       <c r="F38" t="n">
-        <v>6.229159355163574</v>
+        <v>6.229158401489258</v>
       </c>
       <c r="G38" t="n">
         <v>41600</v>
@@ -1784,7 +1784,7 @@
         <v>13.125</v>
       </c>
       <c r="F40" t="n">
-        <v>6.573484420776367</v>
+        <v>6.573483943939209</v>
       </c>
       <c r="G40" t="n">
         <v>3600</v>
@@ -1819,7 +1819,7 @@
         <v>14.0625</v>
       </c>
       <c r="F41" t="n">
-        <v>7.043018817901611</v>
+        <v>7.043018341064453</v>
       </c>
       <c r="G41" t="n">
         <v>3800</v>
@@ -1854,7 +1854,7 @@
         <v>13.9375</v>
       </c>
       <c r="F42" t="n">
-        <v>6.980414390563965</v>
+        <v>6.980413436889648</v>
       </c>
       <c r="G42" t="n">
         <v>3000</v>
@@ -1889,7 +1889,7 @@
         <v>13.4375</v>
       </c>
       <c r="F43" t="n">
-        <v>7.013543128967285</v>
+        <v>7.013542175292969</v>
       </c>
       <c r="G43" t="n">
         <v>1800</v>
@@ -1924,7 +1924,7 @@
         <v>13.4375</v>
       </c>
       <c r="F44" t="n">
-        <v>7.013543128967285</v>
+        <v>7.013542175292969</v>
       </c>
       <c r="G44" t="n">
         <v>4400</v>
@@ -1959,7 +1959,7 @@
         <v>14.1875</v>
       </c>
       <c r="F45" t="n">
-        <v>7.404998302459717</v>
+        <v>7.404997825622559</v>
       </c>
       <c r="G45" t="n">
         <v>4500</v>
@@ -2099,7 +2099,7 @@
         <v>17.375</v>
       </c>
       <c r="F49" t="n">
-        <v>9.070951461791992</v>
+        <v>9.070950508117676</v>
       </c>
       <c r="G49" t="n">
         <v>600</v>
@@ -2134,7 +2134,7 @@
         <v>18.4375</v>
       </c>
       <c r="F50" t="n">
-        <v>9.625649452209473</v>
+        <v>9.625648498535156</v>
       </c>
       <c r="G50" t="n">
         <v>12200</v>
@@ -2169,7 +2169,7 @@
         <v>18.0625</v>
       </c>
       <c r="F51" t="n">
-        <v>9.429874420166016</v>
+        <v>9.429871559143066</v>
       </c>
       <c r="G51" t="n">
         <v>2800</v>
@@ -2204,7 +2204,7 @@
         <v>18.125</v>
       </c>
       <c r="F52" t="n">
-        <v>9.462503433227539</v>
+        <v>9.462502479553223</v>
       </c>
       <c r="G52" t="n">
         <v>700</v>
@@ -2274,7 +2274,7 @@
         <v>20.5</v>
       </c>
       <c r="F54" t="n">
-        <v>10.70241546630859</v>
+        <v>10.70241641998291</v>
       </c>
       <c r="G54" t="n">
         <v>48800</v>
@@ -2309,7 +2309,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>11.5841178894043</v>
+        <v>11.58411884307861</v>
       </c>
       <c r="G55" t="n">
         <v>39600</v>
@@ -2379,7 +2379,7 @@
         <v>14.875</v>
       </c>
       <c r="F57" t="n">
-        <v>10.13610458374023</v>
+        <v>10.13610363006592</v>
       </c>
       <c r="G57" t="n">
         <v>25700</v>
@@ -2414,7 +2414,7 @@
         <v>13.1875</v>
       </c>
       <c r="F58" t="n">
-        <v>8.986207008361816</v>
+        <v>8.986209869384766</v>
       </c>
       <c r="G58" t="n">
         <v>40200</v>
@@ -2449,7 +2449,7 @@
         <v>13.375</v>
       </c>
       <c r="F59" t="n">
-        <v>9.318364143371582</v>
+        <v>9.318366050720215</v>
       </c>
       <c r="G59" t="n">
         <v>35300</v>
@@ -2554,7 +2554,7 @@
         <v>10.85000038146973</v>
       </c>
       <c r="F62" t="n">
-        <v>7.559198379516602</v>
+        <v>7.559199333190918</v>
       </c>
       <c r="G62" t="n">
         <v>3900</v>
@@ -2589,7 +2589,7 @@
         <v>11.80000019073486</v>
       </c>
       <c r="F63" t="n">
-        <v>8.221063613891602</v>
+        <v>8.221061706542969</v>
       </c>
       <c r="G63" t="n">
         <v>31500</v>
@@ -2624,7 +2624,7 @@
         <v>12.19999980926514</v>
       </c>
       <c r="F64" t="n">
-        <v>8.49974250793457</v>
+        <v>8.499743461608887</v>
       </c>
       <c r="G64" t="n">
         <v>2700</v>
@@ -2729,7 +2729,7 @@
         <v>10.71000003814697</v>
       </c>
       <c r="F67" t="n">
-        <v>7.513070583343506</v>
+        <v>7.51307487487793</v>
       </c>
       <c r="G67" t="n">
         <v>3800</v>
@@ -2764,7 +2764,7 @@
         <v>9.649999618530273</v>
       </c>
       <c r="F68" t="n">
-        <v>6.769484519958496</v>
+        <v>6.769482612609863</v>
       </c>
       <c r="G68" t="n">
         <v>13600</v>
@@ -2799,7 +2799,7 @@
         <v>9.619999885559082</v>
       </c>
       <c r="F69" t="n">
-        <v>6.74843692779541</v>
+        <v>6.748436450958252</v>
       </c>
       <c r="G69" t="n">
         <v>2500</v>
@@ -2834,7 +2834,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="F70" t="n">
-        <v>7.435907363891602</v>
+        <v>7.435908794403076</v>
       </c>
       <c r="G70" t="n">
         <v>2100</v>
@@ -2869,7 +2869,7 @@
         <v>10.61999988555908</v>
       </c>
       <c r="F71" t="n">
-        <v>7.456747531890869</v>
+        <v>7.45674991607666</v>
       </c>
       <c r="G71" t="n">
         <v>8900</v>
@@ -2904,7 +2904,7 @@
         <v>10.60000038146973</v>
       </c>
       <c r="F72" t="n">
-        <v>7.442702293395996</v>
+        <v>7.442706108093262</v>
       </c>
       <c r="G72" t="n">
         <v>2700</v>
@@ -2939,7 +2939,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="F73" t="n">
-        <v>7.512919902801514</v>
+        <v>7.512918472290039</v>
       </c>
       <c r="G73" t="n">
         <v>4200</v>
@@ -2974,7 +2974,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="F74" t="n">
-        <v>7.765689849853516</v>
+        <v>7.765690803527832</v>
       </c>
       <c r="G74" t="n">
         <v>10000</v>
@@ -3009,7 +3009,7 @@
         <v>11.14000034332275</v>
       </c>
       <c r="F75" t="n">
-        <v>7.821860790252686</v>
+        <v>7.82186222076416</v>
       </c>
       <c r="G75" t="n">
         <v>56400</v>
@@ -3044,7 +3044,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="F76" t="n">
-        <v>7.941226005554199</v>
+        <v>7.941226482391357</v>
       </c>
       <c r="G76" t="n">
         <v>103400</v>
@@ -3079,7 +3079,7 @@
         <v>10.61999988555908</v>
       </c>
       <c r="F77" t="n">
-        <v>7.456747531890869</v>
+        <v>7.45674991607666</v>
       </c>
       <c r="G77" t="n">
         <v>64600</v>
@@ -3114,7 +3114,7 @@
         <v>9.260000228881836</v>
       </c>
       <c r="F78" t="n">
-        <v>6.501834392547607</v>
+        <v>6.501835823059082</v>
       </c>
       <c r="G78" t="n">
         <v>14400</v>
@@ -3149,7 +3149,7 @@
         <v>9.699999809265137</v>
       </c>
       <c r="F79" t="n">
-        <v>6.810779571533203</v>
+        <v>6.810777187347412</v>
       </c>
       <c r="G79" t="n">
         <v>10900</v>
@@ -3184,7 +3184,7 @@
         <v>8.600000381469727</v>
       </c>
       <c r="F80" t="n">
-        <v>6.038421630859375</v>
+        <v>6.038423538208008</v>
       </c>
       <c r="G80" t="n">
         <v>58100</v>
@@ -3219,7 +3219,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F81" t="n">
-        <v>6.389492511749268</v>
+        <v>6.389492034912109</v>
       </c>
       <c r="G81" t="n">
         <v>196100</v>
@@ -3254,7 +3254,7 @@
         <v>9.630000114440918</v>
       </c>
       <c r="F82" t="n">
-        <v>6.761628150939941</v>
+        <v>6.761627197265625</v>
       </c>
       <c r="G82" t="n">
         <v>27500</v>
@@ -3289,7 +3289,7 @@
         <v>9.439999580383301</v>
       </c>
       <c r="F83" t="n">
-        <v>6.649150848388672</v>
+        <v>6.649150371551514</v>
       </c>
       <c r="G83" t="n">
         <v>5000</v>
@@ -3359,7 +3359,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>7.043595314025879</v>
+        <v>7.043591976165771</v>
       </c>
       <c r="G85" t="n">
         <v>30800</v>
@@ -3394,7 +3394,7 @@
         <v>9.760000228881836</v>
       </c>
       <c r="F86" t="n">
-        <v>6.874545097351074</v>
+        <v>6.874547004699707</v>
       </c>
       <c r="G86" t="n">
         <v>26500</v>
@@ -3429,7 +3429,7 @@
         <v>10.5</v>
       </c>
       <c r="F87" t="n">
-        <v>7.395772457122803</v>
+        <v>7.395771503448486</v>
       </c>
       <c r="G87" t="n">
         <v>612200</v>
@@ -3464,7 +3464,7 @@
         <v>11.5</v>
       </c>
       <c r="F88" t="n">
-        <v>8.100131034851074</v>
+        <v>8.100129127502441</v>
       </c>
       <c r="G88" t="n">
         <v>155900</v>
@@ -3499,7 +3499,7 @@
         <v>11.80000019073486</v>
       </c>
       <c r="F89" t="n">
-        <v>8.311440467834473</v>
+        <v>8.311439514160156</v>
       </c>
       <c r="G89" t="n">
         <v>3763100</v>
@@ -3534,7 +3534,7 @@
         <v>11.65999984741211</v>
       </c>
       <c r="F90" t="n">
-        <v>8.212827682495117</v>
+        <v>8.212828636169434</v>
       </c>
       <c r="G90" t="n">
         <v>8684900</v>
@@ -3569,7 +3569,7 @@
         <v>12.31999969482422</v>
       </c>
       <c r="F91" t="n">
-        <v>8.677706718444824</v>
+        <v>8.677705764770508</v>
       </c>
       <c r="G91" t="n">
         <v>883500</v>
@@ -3604,7 +3604,7 @@
         <v>12.40999984741211</v>
       </c>
       <c r="F92" t="n">
-        <v>8.741098403930664</v>
+        <v>8.74109935760498</v>
       </c>
       <c r="G92" t="n">
         <v>16900</v>
@@ -3639,7 +3639,7 @@
         <v>13.22000026702881</v>
       </c>
       <c r="F93" t="n">
-        <v>9.311630249023438</v>
+        <v>9.311628341674805</v>
       </c>
       <c r="G93" t="n">
         <v>152400</v>
@@ -3674,7 +3674,7 @@
         <v>13.77000045776367</v>
       </c>
       <c r="F94" t="n">
-        <v>9.69902515411377</v>
+        <v>9.699029922485352</v>
       </c>
       <c r="G94" t="n">
         <v>323900</v>
@@ -3849,7 +3849,7 @@
         <v>13.35999965667725</v>
       </c>
       <c r="F99" t="n">
-        <v>9.570592880249023</v>
+        <v>9.570591926574707</v>
       </c>
       <c r="G99" t="n">
         <v>366100</v>
@@ -3884,7 +3884,7 @@
         <v>13.59000015258789</v>
       </c>
       <c r="F100" t="n">
-        <v>9.735356330871582</v>
+        <v>9.735355377197266</v>
       </c>
       <c r="G100" t="n">
         <v>121300</v>
@@ -3954,7 +3954,7 @@
         <v>14.35999965667725</v>
       </c>
       <c r="F102" t="n">
-        <v>10.28695583343506</v>
+        <v>10.28695487976074</v>
       </c>
       <c r="G102" t="n">
         <v>17700</v>
@@ -3989,7 +3989,7 @@
         <v>14.27999973297119</v>
       </c>
       <c r="F103" t="n">
-        <v>10.22964572906494</v>
+        <v>10.22964477539062</v>
       </c>
       <c r="G103" t="n">
         <v>20100</v>
@@ -4024,7 +4024,7 @@
         <v>15.46000003814697</v>
       </c>
       <c r="F104" t="n">
-        <v>11.074951171875</v>
+        <v>11.07495307922363</v>
       </c>
       <c r="G104" t="n">
         <v>135600</v>
@@ -4059,7 +4059,7 @@
         <v>16.45000076293945</v>
       </c>
       <c r="F105" t="n">
-        <v>11.78415107727051</v>
+        <v>11.78414916992188</v>
       </c>
       <c r="G105" t="n">
         <v>46000</v>
@@ -4094,7 +4094,7 @@
         <v>17.27000045776367</v>
       </c>
       <c r="F106" t="n">
-        <v>12.37156867980957</v>
+        <v>12.37156772613525</v>
       </c>
       <c r="G106" t="n">
         <v>237400</v>
@@ -4129,7 +4129,7 @@
         <v>17.29000091552734</v>
       </c>
       <c r="F107" t="n">
-        <v>12.53246784210205</v>
+        <v>12.53246688842773</v>
       </c>
       <c r="G107" t="n">
         <v>52300</v>
@@ -4164,7 +4164,7 @@
         <v>16.5</v>
       </c>
       <c r="F108" t="n">
-        <v>11.95983982086182</v>
+        <v>11.95984077453613</v>
       </c>
       <c r="G108" t="n">
         <v>108200</v>
@@ -4199,7 +4199,7 @@
         <v>17.60000038146973</v>
       </c>
       <c r="F109" t="n">
-        <v>12.75716304779053</v>
+        <v>12.75716686248779</v>
       </c>
       <c r="G109" t="n">
         <v>369000</v>
@@ -4234,7 +4234,7 @@
         <v>17.85000038146973</v>
       </c>
       <c r="F110" t="n">
-        <v>12.93837642669678</v>
+        <v>12.93837451934814</v>
       </c>
       <c r="G110" t="n">
         <v>404500</v>
@@ -4269,7 +4269,7 @@
         <v>16.76000022888184</v>
       </c>
       <c r="F111" t="n">
-        <v>12.14830112457275</v>
+        <v>12.14829921722412</v>
       </c>
       <c r="G111" t="n">
         <v>80200</v>
@@ -4304,7 +4304,7 @@
         <v>17.21999931335449</v>
       </c>
       <c r="F112" t="n">
-        <v>12.48172283172607</v>
+        <v>12.48172092437744</v>
       </c>
       <c r="G112" t="n">
         <v>73900</v>
@@ -4339,7 +4339,7 @@
         <v>18.14999961853027</v>
       </c>
       <c r="F113" t="n">
-        <v>13.15582752227783</v>
+        <v>13.15582656860352</v>
       </c>
       <c r="G113" t="n">
         <v>85300</v>
@@ -4374,7 +4374,7 @@
         <v>19.20999908447266</v>
       </c>
       <c r="F114" t="n">
-        <v>13.92415523529053</v>
+        <v>13.92415332794189</v>
       </c>
       <c r="G114" t="n">
         <v>98700</v>
@@ -4409,7 +4409,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F115" t="n">
-        <v>14.78671550750732</v>
+        <v>14.78671169281006</v>
       </c>
       <c r="G115" t="n">
         <v>557600</v>
@@ -4444,7 +4444,7 @@
         <v>21.56999969482422</v>
       </c>
       <c r="F116" t="n">
-        <v>15.63477897644043</v>
+        <v>15.63477611541748</v>
       </c>
       <c r="G116" t="n">
         <v>487200</v>
@@ -4479,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="F117" t="n">
-        <v>14.4967794418335</v>
+        <v>14.49678134918213</v>
       </c>
       <c r="G117" t="n">
         <v>757200</v>
@@ -4514,7 +4514,7 @@
         <v>21.04999923706055</v>
       </c>
       <c r="F118" t="n">
-        <v>15.25785160064697</v>
+        <v>15.25785732269287</v>
       </c>
       <c r="G118" t="n">
         <v>356500</v>
@@ -4549,7 +4549,7 @@
         <v>21.89999961853027</v>
       </c>
       <c r="F119" t="n">
-        <v>15.98236274719238</v>
+        <v>15.98236465454102</v>
       </c>
       <c r="G119" t="n">
         <v>193000</v>
@@ -4584,7 +4584,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="F120" t="n">
-        <v>17.42734336853027</v>
+        <v>17.42734718322754</v>
       </c>
       <c r="G120" t="n">
         <v>1232100</v>
@@ -4619,7 +4619,7 @@
         <v>23.34000015258789</v>
       </c>
       <c r="F121" t="n">
-        <v>17.03326416015625</v>
+        <v>17.03325843811035</v>
       </c>
       <c r="G121" t="n">
         <v>1282800</v>
@@ -4689,7 +4689,7 @@
         <v>24.86000061035156</v>
       </c>
       <c r="F123" t="n">
-        <v>18.14253807067871</v>
+        <v>18.14253425598145</v>
       </c>
       <c r="G123" t="n">
         <v>433300</v>
@@ -4724,7 +4724,7 @@
         <v>24.29999923706055</v>
       </c>
       <c r="F124" t="n">
-        <v>17.73385429382324</v>
+        <v>17.73385620117188</v>
       </c>
       <c r="G124" t="n">
         <v>1017600</v>
@@ -4759,7 +4759,7 @@
         <v>23.75</v>
       </c>
       <c r="F125" t="n">
-        <v>17.33246803283691</v>
+        <v>17.33247375488281</v>
       </c>
       <c r="G125" t="n">
         <v>636300</v>
@@ -4794,7 +4794,7 @@
         <v>23.78000068664551</v>
       </c>
       <c r="F126" t="n">
-        <v>17.35436820983887</v>
+        <v>17.3543701171875</v>
       </c>
       <c r="G126" t="n">
         <v>208700</v>
@@ -4829,7 +4829,7 @@
         <v>24.75</v>
       </c>
       <c r="F127" t="n">
-        <v>18.06225776672363</v>
+        <v>18.0622615814209</v>
       </c>
       <c r="G127" t="n">
         <v>388100</v>
@@ -4864,7 +4864,7 @@
         <v>24</v>
       </c>
       <c r="F128" t="n">
-        <v>17.51491546630859</v>
+        <v>17.51492309570312</v>
       </c>
       <c r="G128" t="n">
         <v>324900</v>
@@ -4934,7 +4934,7 @@
         <v>25.77000045776367</v>
       </c>
       <c r="F130" t="n">
-        <v>18.80665016174316</v>
+        <v>18.80664443969727</v>
       </c>
       <c r="G130" t="n">
         <v>485300</v>
@@ -4969,7 +4969,7 @@
         <v>25.31999969482422</v>
       </c>
       <c r="F131" t="n">
-        <v>18.68676567077637</v>
+        <v>18.68675994873047</v>
       </c>
       <c r="G131" t="n">
         <v>118800</v>
@@ -5004,7 +5004,7 @@
         <v>25.34000015258789</v>
       </c>
       <c r="F132" t="n">
-        <v>18.7015209197998</v>
+        <v>18.70153045654297</v>
       </c>
       <c r="G132" t="n">
         <v>440600</v>
@@ -5074,7 +5074,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F134" t="n">
-        <v>19.2993221282959</v>
+        <v>19.29932403564453</v>
       </c>
       <c r="G134" t="n">
         <v>257200</v>
@@ -5144,7 +5144,7 @@
         <v>30.10000038146973</v>
       </c>
       <c r="F136" t="n">
-        <v>22.21451759338379</v>
+        <v>22.21451950073242</v>
       </c>
       <c r="G136" t="n">
         <v>1700200</v>
@@ -5249,7 +5249,7 @@
         <v>29.89999961853027</v>
       </c>
       <c r="F139" t="n">
-        <v>22.06691932678223</v>
+        <v>22.06691551208496</v>
       </c>
       <c r="G139" t="n">
         <v>479400</v>
@@ -5284,7 +5284,7 @@
         <v>32.72999954223633</v>
       </c>
       <c r="F140" t="n">
-        <v>24.15552711486816</v>
+        <v>24.15551948547363</v>
       </c>
       <c r="G140" t="n">
         <v>4585100</v>
@@ -5319,7 +5319,7 @@
         <v>36.08000183105469</v>
       </c>
       <c r="F141" t="n">
-        <v>26.62790679931641</v>
+        <v>26.62790107727051</v>
       </c>
       <c r="G141" t="n">
         <v>1251500</v>
@@ -5354,7 +5354,7 @@
         <v>31.90999984741211</v>
       </c>
       <c r="F142" t="n">
-        <v>23.55034065246582</v>
+        <v>23.55034446716309</v>
       </c>
       <c r="G142" t="n">
         <v>1877000</v>
@@ -5389,7 +5389,7 @@
         <v>32.11999893188477</v>
       </c>
       <c r="F143" t="n">
-        <v>23.99741172790527</v>
+        <v>23.99741554260254</v>
       </c>
       <c r="G143" t="n">
         <v>583300</v>
@@ -5424,7 +5424,7 @@
         <v>30.28000068664551</v>
       </c>
       <c r="F144" t="n">
-        <v>22.62271499633789</v>
+        <v>22.62271308898926</v>
       </c>
       <c r="G144" t="n">
         <v>1531400</v>
@@ -5494,7 +5494,7 @@
         <v>30.30999946594238</v>
       </c>
       <c r="F146" t="n">
-        <v>22.6451301574707</v>
+        <v>22.64512634277344</v>
       </c>
       <c r="G146" t="n">
         <v>1227900</v>
@@ -5529,7 +5529,7 @@
         <v>32.45999908447266</v>
       </c>
       <c r="F147" t="n">
-        <v>24.25142860412598</v>
+        <v>24.25143051147461</v>
       </c>
       <c r="G147" t="n">
         <v>924900</v>
@@ -5564,7 +5564,7 @@
         <v>35.0099983215332</v>
       </c>
       <c r="F148" t="n">
-        <v>26.15657806396484</v>
+        <v>26.15657615661621</v>
       </c>
       <c r="G148" t="n">
         <v>659500</v>
@@ -5599,7 +5599,7 @@
         <v>33.15999984741211</v>
       </c>
       <c r="F149" t="n">
-        <v>24.86098480224609</v>
+        <v>24.86098098754883</v>
       </c>
       <c r="G149" t="n">
         <v>1139400</v>
@@ -5634,7 +5634,7 @@
         <v>31.35000038146973</v>
       </c>
       <c r="F150" t="n">
-        <v>23.50397109985352</v>
+        <v>23.50397300720215</v>
       </c>
       <c r="G150" t="n">
         <v>2917900</v>
@@ -5669,7 +5669,7 @@
         <v>30.3799991607666</v>
       </c>
       <c r="F151" t="n">
-        <v>22.77674102783203</v>
+        <v>22.7767333984375</v>
       </c>
       <c r="G151" t="n">
         <v>641600</v>
@@ -5704,7 +5704,7 @@
         <v>26.34000015258789</v>
       </c>
       <c r="F152" t="n">
-        <v>19.74783897399902</v>
+        <v>19.74783706665039</v>
       </c>
       <c r="G152" t="n">
         <v>1380300</v>
@@ -5739,7 +5739,7 @@
         <v>19.18000030517578</v>
       </c>
       <c r="F153" t="n">
-        <v>14.37978839874268</v>
+        <v>14.37978076934814</v>
       </c>
       <c r="G153" t="n">
         <v>2620200</v>
@@ -5809,7 +5809,7 @@
         <v>17.43000030517578</v>
       </c>
       <c r="F155" t="n">
-        <v>13.33461952209473</v>
+        <v>13.33461761474609</v>
       </c>
       <c r="G155" t="n">
         <v>960800</v>
@@ -5844,7 +5844,7 @@
         <v>16.70000076293945</v>
       </c>
       <c r="F156" t="n">
-        <v>12.77613925933838</v>
+        <v>12.77614116668701</v>
       </c>
       <c r="G156" t="n">
         <v>1373600</v>
@@ -5914,7 +5914,7 @@
         <v>16.45999908447266</v>
       </c>
       <c r="F158" t="n">
-        <v>12.592529296875</v>
+        <v>12.59252834320068</v>
       </c>
       <c r="G158" t="n">
         <v>1356400</v>
@@ -5949,7 +5949,7 @@
         <v>18.73999977111816</v>
       </c>
       <c r="F159" t="n">
-        <v>14.33681583404541</v>
+        <v>14.3368091583252</v>
       </c>
       <c r="G159" t="n">
         <v>2625800</v>
@@ -5984,7 +5984,7 @@
         <v>23.10000038146973</v>
       </c>
       <c r="F160" t="n">
-        <v>17.6723804473877</v>
+        <v>17.67238807678223</v>
       </c>
       <c r="G160" t="n">
         <v>5637800</v>
@@ -6019,7 +6019,7 @@
         <v>21.42000007629395</v>
       </c>
       <c r="F161" t="n">
-        <v>16.45916938781738</v>
+        <v>16.45916748046875</v>
       </c>
       <c r="G161" t="n">
         <v>3036300</v>
@@ -6089,7 +6089,7 @@
         <v>23.78000068664551</v>
       </c>
       <c r="F163" t="n">
-        <v>18.2725944519043</v>
+        <v>18.27259254455566</v>
       </c>
       <c r="G163" t="n">
         <v>1524300</v>
@@ -6124,7 +6124,7 @@
         <v>25.47999954223633</v>
       </c>
       <c r="F164" t="n">
-        <v>19.57888031005859</v>
+        <v>19.57887649536133</v>
       </c>
       <c r="G164" t="n">
         <v>2512100</v>
@@ -6194,7 +6194,7 @@
         <v>25.90999984741211</v>
       </c>
       <c r="F166" t="n">
-        <v>19.90929222106934</v>
+        <v>19.90928840637207</v>
       </c>
       <c r="G166" t="n">
         <v>2419300</v>
@@ -6264,7 +6264,7 @@
         <v>24.44000053405762</v>
       </c>
       <c r="F168" t="n">
-        <v>18.95646858215332</v>
+        <v>18.95647430419922</v>
       </c>
       <c r="G168" t="n">
         <v>6228500</v>
@@ -6299,7 +6299,7 @@
         <v>25.90999984741211</v>
       </c>
       <c r="F169" t="n">
-        <v>20.09665489196777</v>
+        <v>20.09665107727051</v>
       </c>
       <c r="G169" t="n">
         <v>3795900</v>
@@ -6369,7 +6369,7 @@
         <v>28.22999954223633</v>
       </c>
       <c r="F171" t="n">
-        <v>21.8961181640625</v>
+        <v>21.89612007141113</v>
       </c>
       <c r="G171" t="n">
         <v>4581500</v>
@@ -6404,7 +6404,7 @@
         <v>26.17000007629395</v>
       </c>
       <c r="F172" t="n">
-        <v>20.29831314086914</v>
+        <v>20.29831886291504</v>
       </c>
       <c r="G172" t="n">
         <v>3695900</v>
@@ -6439,7 +6439,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="F173" t="n">
-        <v>19.41907501220703</v>
+        <v>19.41906929016113</v>
       </c>
       <c r="G173" t="n">
         <v>8483300</v>
@@ -6474,7 +6474,7 @@
         <v>26.65999984741211</v>
       </c>
       <c r="F174" t="n">
-        <v>20.81674385070801</v>
+        <v>20.81674575805664</v>
       </c>
       <c r="G174" t="n">
         <v>2215600</v>
@@ -6509,7 +6509,7 @@
         <v>26.10000038146973</v>
       </c>
       <c r="F175" t="n">
-        <v>20.37948417663574</v>
+        <v>20.37948608398438</v>
       </c>
       <c r="G175" t="n">
         <v>2160100</v>
@@ -6579,7 +6579,7 @@
         <v>28.92000007629395</v>
       </c>
       <c r="F177" t="n">
-        <v>22.5814094543457</v>
+        <v>22.58140563964844</v>
       </c>
       <c r="G177" t="n">
         <v>1739200</v>
@@ -6649,7 +6649,7 @@
         <v>31</v>
       </c>
       <c r="F179" t="n">
-        <v>24.46285438537598</v>
+        <v>24.46284866333008</v>
       </c>
       <c r="G179" t="n">
         <v>1892100</v>
@@ -6684,7 +6684,7 @@
         <v>31.29000091552734</v>
       </c>
       <c r="F180" t="n">
-        <v>24.69170379638672</v>
+        <v>24.69169235229492</v>
       </c>
       <c r="G180" t="n">
         <v>4713600</v>
@@ -6754,7 +6754,7 @@
         <v>33.61000061035156</v>
       </c>
       <c r="F182" t="n">
-        <v>26.5224609375</v>
+        <v>26.5224666595459</v>
       </c>
       <c r="G182" t="n">
         <v>6803400</v>
@@ -6789,7 +6789,7 @@
         <v>33.70000076293945</v>
       </c>
       <c r="F183" t="n">
-        <v>26.5934886932373</v>
+        <v>26.59348678588867</v>
       </c>
       <c r="G183" t="n">
         <v>5546400</v>
@@ -6824,7 +6824,7 @@
         <v>32.90000152587891</v>
       </c>
       <c r="F184" t="n">
-        <v>25.96218872070312</v>
+        <v>25.96219062805176</v>
       </c>
       <c r="G184" t="n">
         <v>6080100</v>
@@ -6859,7 +6859,7 @@
         <v>31.67000007629395</v>
       </c>
       <c r="F185" t="n">
-        <v>25.15847587585449</v>
+        <v>25.15847396850586</v>
       </c>
       <c r="G185" t="n">
         <v>3137300</v>
@@ -6964,7 +6964,7 @@
         <v>25.48999977111816</v>
       </c>
       <c r="F188" t="n">
-        <v>20.24912071228027</v>
+        <v>20.24911689758301</v>
       </c>
       <c r="G188" t="n">
         <v>2988700</v>
@@ -6999,7 +6999,7 @@
         <v>28.23999977111816</v>
       </c>
       <c r="F189" t="n">
-        <v>22.4336986541748</v>
+        <v>22.43370246887207</v>
       </c>
       <c r="G189" t="n">
         <v>2550200</v>
@@ -7069,7 +7069,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F191" t="n">
-        <v>21.42870712280273</v>
+        <v>21.42870903015137</v>
       </c>
       <c r="G191" t="n">
         <v>2737600</v>
@@ -7104,7 +7104,7 @@
         <v>28.11000061035156</v>
       </c>
       <c r="F192" t="n">
-        <v>22.64515113830566</v>
+        <v>22.6451473236084</v>
       </c>
       <c r="G192" t="n">
         <v>4552500</v>
@@ -7139,7 +7139,7 @@
         <v>29.02000045776367</v>
       </c>
       <c r="F193" t="n">
-        <v>23.37823104858398</v>
+        <v>23.37823486328125</v>
       </c>
       <c r="G193" t="n">
         <v>3692600</v>
@@ -7174,7 +7174,7 @@
         <v>28.34000015258789</v>
       </c>
       <c r="F194" t="n">
-        <v>22.83043098449707</v>
+        <v>22.83042907714844</v>
       </c>
       <c r="G194" t="n">
         <v>1208700</v>
@@ -7209,7 +7209,7 @@
         <v>28.36000061035156</v>
       </c>
       <c r="F195" t="n">
-        <v>22.84654426574707</v>
+        <v>22.8465461730957</v>
       </c>
       <c r="G195" t="n">
         <v>1234600</v>
@@ -7244,7 +7244,7 @@
         <v>25.31999969482422</v>
       </c>
       <c r="F196" t="n">
-        <v>20.39755058288574</v>
+        <v>20.39755439758301</v>
       </c>
       <c r="G196" t="n">
         <v>2855700</v>
@@ -7314,7 +7314,7 @@
         <v>26.29000091552734</v>
       </c>
       <c r="F198" t="n">
-        <v>21.35408973693848</v>
+        <v>21.35408782958984</v>
       </c>
       <c r="G198" t="n">
         <v>2857200</v>
@@ -7384,7 +7384,7 @@
         <v>28.48999977111816</v>
       </c>
       <c r="F200" t="n">
-        <v>23.14103889465332</v>
+        <v>23.14103698730469</v>
       </c>
       <c r="G200" t="n">
         <v>2690200</v>
@@ -7419,7 +7419,7 @@
         <v>28.48999977111816</v>
       </c>
       <c r="F201" t="n">
-        <v>23.14103889465332</v>
+        <v>23.14103698730469</v>
       </c>
       <c r="G201" t="n">
         <v>3156100</v>
@@ -7454,7 +7454,7 @@
         <v>28.11000061035156</v>
       </c>
       <c r="F202" t="n">
-        <v>22.83238220214844</v>
+        <v>22.8323802947998</v>
       </c>
       <c r="G202" t="n">
         <v>3449000</v>
@@ -7489,7 +7489,7 @@
         <v>28.39999961853027</v>
       </c>
       <c r="F203" t="n">
-        <v>23.3758544921875</v>
+        <v>23.37585830688477</v>
       </c>
       <c r="G203" t="n">
         <v>2003700</v>
@@ -7559,7 +7559,7 @@
         <v>28.21999931335449</v>
       </c>
       <c r="F205" t="n">
-        <v>23.22770118713379</v>
+        <v>23.22769927978516</v>
       </c>
       <c r="G205" t="n">
         <v>5103500</v>
@@ -7629,7 +7629,7 @@
         <v>28.02000045776367</v>
       </c>
       <c r="F207" t="n">
-        <v>23.06308364868164</v>
+        <v>23.06308174133301</v>
       </c>
       <c r="G207" t="n">
         <v>2796500</v>
@@ -7664,7 +7664,7 @@
         <v>27.72999954223633</v>
       </c>
       <c r="F208" t="n">
-        <v>22.82438278198242</v>
+        <v>22.82438468933105</v>
       </c>
       <c r="G208" t="n">
         <v>1913400</v>
@@ -7699,7 +7699,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F209" t="n">
-        <v>21.77559661865234</v>
+        <v>21.77559852600098</v>
       </c>
       <c r="G209" t="n">
         <v>2523700</v>
@@ -7734,7 +7734,7 @@
         <v>27.6299991607666</v>
       </c>
       <c r="F210" t="n">
-        <v>23.00802421569824</v>
+        <v>23.00802230834961</v>
       </c>
       <c r="G210" t="n">
         <v>1720300</v>
@@ -7769,7 +7769,7 @@
         <v>27.38999938964844</v>
       </c>
       <c r="F211" t="n">
-        <v>22.80817222595215</v>
+        <v>22.80817413330078</v>
       </c>
       <c r="G211" t="n">
         <v>783300</v>
@@ -7839,7 +7839,7 @@
         <v>29.36000061035156</v>
       </c>
       <c r="F213" t="n">
-        <v>24.44862747192383</v>
+        <v>24.44863128662109</v>
       </c>
       <c r="G213" t="n">
         <v>1477400</v>
@@ -7874,7 +7874,7 @@
         <v>29.09000015258789</v>
       </c>
       <c r="F214" t="n">
-        <v>24.22379684448242</v>
+        <v>24.22379493713379</v>
       </c>
       <c r="G214" t="n">
         <v>969100</v>
@@ -7909,7 +7909,7 @@
         <v>29.15999984741211</v>
       </c>
       <c r="F215" t="n">
-        <v>24.61698722839355</v>
+        <v>24.61698150634766</v>
       </c>
       <c r="G215" t="n">
         <v>445600</v>
@@ -7944,7 +7944,7 @@
         <v>27.93000030517578</v>
       </c>
       <c r="F216" t="n">
-        <v>23.57861518859863</v>
+        <v>23.57861709594727</v>
       </c>
       <c r="G216" t="n">
         <v>1149000</v>
@@ -7979,7 +7979,7 @@
         <v>29.18000030517578</v>
       </c>
       <c r="F217" t="n">
-        <v>24.63387298583984</v>
+        <v>24.63386535644531</v>
       </c>
       <c r="G217" t="n">
         <v>973900</v>
@@ -8049,7 +8049,7 @@
         <v>30.54000091552734</v>
       </c>
       <c r="F219" t="n">
-        <v>25.78198623657227</v>
+        <v>25.78199005126953</v>
       </c>
       <c r="G219" t="n">
         <v>2022000</v>
@@ -8084,7 +8084,7 @@
         <v>30.70000076293945</v>
       </c>
       <c r="F220" t="n">
-        <v>25.91705894470215</v>
+        <v>25.91706466674805</v>
       </c>
       <c r="G220" t="n">
         <v>1805800</v>
@@ -8119,7 +8119,7 @@
         <v>32.20999908447266</v>
       </c>
       <c r="F221" t="n">
-        <v>27.39431381225586</v>
+        <v>27.39431571960449</v>
       </c>
       <c r="G221" t="n">
         <v>1731700</v>
@@ -8154,7 +8154,7 @@
         <v>32.15999984741211</v>
       </c>
       <c r="F222" t="n">
-        <v>27.35178565979004</v>
+        <v>27.3517894744873</v>
       </c>
       <c r="G222" t="n">
         <v>1679700</v>
@@ -8189,7 +8189,7 @@
         <v>32.86000061035156</v>
       </c>
       <c r="F223" t="n">
-        <v>27.9471321105957</v>
+        <v>27.94713020324707</v>
       </c>
       <c r="G223" t="n">
         <v>1103900</v>
@@ -8294,7 +8294,7 @@
         <v>29.94000053405762</v>
       </c>
       <c r="F226" t="n">
-        <v>25.46369552612305</v>
+        <v>25.46369934082031</v>
       </c>
       <c r="G226" t="n">
         <v>1310400</v>
@@ -8329,7 +8329,7 @@
         <v>28.86000061035156</v>
       </c>
       <c r="F227" t="n">
-        <v>24.89303970336914</v>
+        <v>24.89303588867188</v>
       </c>
       <c r="G227" t="n">
         <v>2154700</v>
@@ -8434,7 +8434,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F230" t="n">
-        <v>23.4439640045166</v>
+        <v>23.44396591186523</v>
       </c>
       <c r="G230" t="n">
         <v>1862400</v>
@@ -8469,7 +8469,7 @@
         <v>29.1200008392334</v>
       </c>
       <c r="F231" t="n">
-        <v>25.1173038482666</v>
+        <v>25.11730194091797</v>
       </c>
       <c r="G231" t="n">
         <v>2126500</v>
@@ -8504,7 +8504,7 @@
         <v>27.78000068664551</v>
       </c>
       <c r="F232" t="n">
-        <v>23.96149063110352</v>
+        <v>23.96148872375488</v>
       </c>
       <c r="G232" t="n">
         <v>1647200</v>
@@ -8539,7 +8539,7 @@
         <v>26.67000007629395</v>
       </c>
       <c r="F233" t="n">
-        <v>23.18096733093262</v>
+        <v>23.18096923828125</v>
       </c>
       <c r="G233" t="n">
         <v>1522200</v>
@@ -8609,7 +8609,7 @@
         <v>24.27000045776367</v>
       </c>
       <c r="F235" t="n">
-        <v>21.09494400024414</v>
+        <v>21.09494209289551</v>
       </c>
       <c r="G235" t="n">
         <v>4110200</v>
@@ -8749,7 +8749,7 @@
         <v>21.5</v>
       </c>
       <c r="F239" t="n">
-        <v>18.94127082824707</v>
+        <v>18.94126892089844</v>
       </c>
       <c r="G239" t="n">
         <v>2122100</v>
@@ -8854,7 +8854,7 @@
         <v>23.70999908447266</v>
       </c>
       <c r="F242" t="n">
-        <v>20.88825988769531</v>
+        <v>20.88825416564941</v>
       </c>
       <c r="G242" t="n">
         <v>1627800</v>
@@ -8959,7 +8959,7 @@
         <v>24.51000022888184</v>
       </c>
       <c r="F245" t="n">
-        <v>21.76408958435059</v>
+        <v>21.76409149169922</v>
       </c>
       <c r="G245" t="n">
         <v>6703400</v>
@@ -8994,7 +8994,7 @@
         <v>25.23999977111816</v>
       </c>
       <c r="F246" t="n">
-        <v>22.41230773925781</v>
+        <v>22.41230583190918</v>
       </c>
       <c r="G246" t="n">
         <v>809200</v>
@@ -9169,7 +9169,7 @@
         <v>26.14999961853027</v>
       </c>
       <c r="F251" t="n">
-        <v>23.4524097442627</v>
+        <v>23.45240783691406</v>
       </c>
       <c r="G251" t="n">
         <v>5172400</v>
@@ -9204,7 +9204,7 @@
         <v>27.18000030517578</v>
       </c>
       <c r="F252" t="n">
-        <v>24.37616157531738</v>
+        <v>24.37615966796875</v>
       </c>
       <c r="G252" t="n">
         <v>1563000</v>
@@ -9309,7 +9309,7 @@
         <v>26.26000022888184</v>
       </c>
       <c r="F255" t="n">
-        <v>23.55106163024902</v>
+        <v>23.55106544494629</v>
       </c>
       <c r="G255" t="n">
         <v>1927400</v>
@@ -9449,7 +9449,7 @@
         <v>27.8700008392334</v>
       </c>
       <c r="F259" t="n">
-        <v>25.19842338562012</v>
+        <v>25.19841957092285</v>
       </c>
       <c r="G259" t="n">
         <v>2962600</v>
@@ -9484,7 +9484,7 @@
         <v>28.94000053405762</v>
       </c>
       <c r="F260" t="n">
-        <v>26.16585350036621</v>
+        <v>26.16585159301758</v>
       </c>
       <c r="G260" t="n">
         <v>4560400</v>
@@ -9554,7 +9554,7 @@
         <v>28.94000053405762</v>
       </c>
       <c r="F262" t="n">
-        <v>26.16585350036621</v>
+        <v>26.16585159301758</v>
       </c>
       <c r="G262" t="n">
         <v>4466800</v>
@@ -9589,7 +9589,7 @@
         <v>29.63999938964844</v>
       </c>
       <c r="F263" t="n">
-        <v>27.1418628692627</v>
+        <v>27.14186096191406</v>
       </c>
       <c r="G263" t="n">
         <v>3205000</v>
@@ -9624,7 +9624,7 @@
         <v>29.8799991607666</v>
       </c>
       <c r="F264" t="n">
-        <v>27.36162948608398</v>
+        <v>27.36163139343262</v>
       </c>
       <c r="G264" t="n">
         <v>2980000</v>
@@ -9659,7 +9659,7 @@
         <v>27.79000091552734</v>
       </c>
       <c r="F265" t="n">
-        <v>25.44778633117676</v>
+        <v>25.44778823852539</v>
       </c>
       <c r="G265" t="n">
         <v>4597400</v>
@@ -9694,7 +9694,7 @@
         <v>27.55999946594238</v>
       </c>
       <c r="F266" t="n">
-        <v>25.2371654510498</v>
+        <v>25.23716735839844</v>
       </c>
       <c r="G266" t="n">
         <v>4286700</v>
@@ -9729,7 +9729,7 @@
         <v>28.1299991607666</v>
       </c>
       <c r="F267" t="n">
-        <v>25.75912475585938</v>
+        <v>25.75912857055664</v>
       </c>
       <c r="G267" t="n">
         <v>2151100</v>
@@ -9764,7 +9764,7 @@
         <v>28.73999977111816</v>
       </c>
       <c r="F268" t="n">
-        <v>26.31771850585938</v>
+        <v>26.31771469116211</v>
       </c>
       <c r="G268" t="n">
         <v>4275500</v>
@@ -9799,7 +9799,7 @@
         <v>28.51000022888184</v>
       </c>
       <c r="F269" t="n">
-        <v>26.31160545349121</v>
+        <v>26.31160354614258</v>
       </c>
       <c r="G269" t="n">
         <v>2690300</v>
@@ -9834,7 +9834,7 @@
         <v>29.20999908447266</v>
       </c>
       <c r="F270" t="n">
-        <v>26.95762634277344</v>
+        <v>26.95762825012207</v>
       </c>
       <c r="G270" t="n">
         <v>5163200</v>
@@ -9869,7 +9869,7 @@
         <v>28.79999923706055</v>
       </c>
       <c r="F271" t="n">
-        <v>26.5792407989502</v>
+        <v>26.57924270629883</v>
       </c>
       <c r="G271" t="n">
         <v>4120300</v>
@@ -9939,7 +9939,7 @@
         <v>26.51000022888184</v>
       </c>
       <c r="F273" t="n">
-        <v>24.46582412719727</v>
+        <v>24.46582221984863</v>
       </c>
       <c r="G273" t="n">
         <v>7104900</v>
@@ -10044,7 +10044,7 @@
         <v>27.04999923706055</v>
       </c>
       <c r="F276" t="n">
-        <v>25.38176918029785</v>
+        <v>25.38176727294922</v>
       </c>
       <c r="G276" t="n">
         <v>2551800</v>
@@ -10079,7 +10079,7 @@
         <v>27.85000038146973</v>
       </c>
       <c r="F277" t="n">
-        <v>26.1324348449707</v>
+        <v>26.13243103027344</v>
       </c>
       <c r="G277" t="n">
         <v>1842500</v>
@@ -10114,7 +10114,7 @@
         <v>27.63999938964844</v>
       </c>
       <c r="F278" t="n">
-        <v>25.93538284301758</v>
+        <v>25.93538093566895</v>
       </c>
       <c r="G278" t="n">
         <v>2722900</v>
@@ -10184,7 +10184,7 @@
         <v>27.32999992370605</v>
       </c>
       <c r="F280" t="n">
-        <v>25.64450073242188</v>
+        <v>25.64450263977051</v>
       </c>
       <c r="G280" t="n">
         <v>1835700</v>
@@ -10254,7 +10254,7 @@
         <v>28.38999938964844</v>
       </c>
       <c r="F282" t="n">
-        <v>26.88185119628906</v>
+        <v>26.88184928894043</v>
       </c>
       <c r="G282" t="n">
         <v>2830300</v>
@@ -10289,7 +10289,7 @@
         <v>28.19000053405762</v>
       </c>
       <c r="F283" t="n">
-        <v>26.69247627258301</v>
+        <v>26.69247817993164</v>
       </c>
       <c r="G283" t="n">
         <v>2160700</v>
@@ -10394,7 +10394,7 @@
         <v>29.6299991607666</v>
       </c>
       <c r="F286" t="n">
-        <v>28.05598068237305</v>
+        <v>28.05597877502441</v>
       </c>
       <c r="G286" t="n">
         <v>495900</v>
@@ -10429,7 +10429,7 @@
         <v>29.88999938964844</v>
       </c>
       <c r="F287" t="n">
-        <v>28.68292999267578</v>
+        <v>28.68293190002441</v>
       </c>
       <c r="G287" t="n">
         <v>1620800</v>
@@ -10464,7 +10464,7 @@
         <v>29.67000007629395</v>
       </c>
       <c r="F288" t="n">
-        <v>28.47181510925293</v>
+        <v>28.4718132019043</v>
       </c>
       <c r="G288" t="n">
         <v>5866600</v>
@@ -10674,7 +10674,7 @@
         <v>27.30999946594238</v>
       </c>
       <c r="F294" t="n">
-        <v>26.47308921813965</v>
+        <v>26.47308731079102</v>
       </c>
       <c r="G294" t="n">
         <v>4484200</v>
@@ -10709,7 +10709,7 @@
         <v>28.70999908447266</v>
       </c>
       <c r="F295" t="n">
-        <v>27.8301830291748</v>
+        <v>27.83018493652344</v>
       </c>
       <c r="G295" t="n">
         <v>2100000</v>
@@ -10919,7 +10919,7 @@
         <v>32.16999816894531</v>
       </c>
       <c r="F301" t="n">
-        <v>31.57088088989258</v>
+        <v>31.57087898254395</v>
       </c>
       <c r="G301" t="n">
         <v>5118400</v>
@@ -11024,7 +11024,7 @@
         <v>37.86999893188477</v>
       </c>
       <c r="F304" t="n">
-        <v>37.16472625732422</v>
+        <v>37.16472244262695</v>
       </c>
       <c r="G304" t="n">
         <v>1867400</v>
@@ -11301,25 +11301,25 @@
         <v>38.40499877929688</v>
       </c>
       <c r="E312" t="n">
-        <v>38.47999954223633</v>
+        <v>38.43999862670898</v>
       </c>
       <c r="F312" t="n">
-        <v>38.47999954223633</v>
+        <v>38.43999862670898</v>
       </c>
       <c r="G312" t="n">
-        <v>1406652</v>
+        <v>1702022</v>
       </c>
       <c r="H312" t="n">
-        <v>0.001301047011800671</v>
+        <v>0.0002601696969504186</v>
       </c>
       <c r="I312" t="n">
-        <v>0.04715262644346899</v>
+        <v>0.04715317550529101</v>
       </c>
       <c r="J312" t="n">
-        <v>0.2575163092330695</v>
+        <v>0.2562090897876879</v>
       </c>
       <c r="K312" t="n">
-        <v>0.2575163092330695</v>
+        <v>0.2562090897876879</v>
       </c>
     </row>
   </sheetData>
